--- a/Документация/WebTours Профиль нагрузки WebTors.xlsx
+++ b/Документация/WebTours Профиль нагрузки WebTors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Load Testing XSET\Load-Testing-XSET\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F74BE26-1F75-4707-AF80-14C7A17A234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1C612-E5B3-4C8B-B6A1-A43467D3C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="314" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -292,12 +292,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>Покупка билета</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удаление бронирования </t>
-  </si>
-  <si>
     <t xml:space="preserve">Заполнение полей для поиска билета </t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>% Отклонение от Профиля</t>
   </si>
   <si>
-    <t>Регистрация новых пользователей</t>
-  </si>
-  <si>
     <t>Главная Welcome страница</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>Переход на следуюущий эран после регистарции</t>
   </si>
   <si>
-    <t>Логин</t>
-  </si>
-  <si>
     <t>Покупка билет</t>
   </si>
   <si>
@@ -520,78 +508,9 @@
     <t>Имя в скрипте</t>
   </si>
   <si>
-    <t>open_home_page</t>
-  </si>
-  <si>
-    <t>SLA Status</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Std. Deviation</t>
-  </si>
-  <si>
-    <t>90 Percent</t>
-  </si>
-  <si>
-    <t>choose_flight</t>
-  </si>
-  <si>
     <t>No Data</t>
   </si>
   <si>
-    <t>click_flights</t>
-  </si>
-  <si>
-    <t>click_itinerary</t>
-  </si>
-  <si>
-    <t>click_sign_off</t>
-  </si>
-  <si>
-    <t>click_sign_up_now</t>
-  </si>
-  <si>
-    <t>customer_profile</t>
-  </si>
-  <si>
-    <t>delete_ticket</t>
-  </si>
-  <si>
-    <t>fill_payment_details</t>
-  </si>
-  <si>
-    <t>find_flight</t>
-  </si>
-  <si>
-    <t>open_site</t>
-  </si>
-  <si>
-    <t>UC01_registration</t>
-  </si>
-  <si>
-    <t>UC02_BuyTicket</t>
-  </si>
-  <si>
-    <t>UC03_ViewItinerary</t>
-  </si>
-  <si>
-    <t>UC04_DeleteTicket</t>
-  </si>
-  <si>
-    <t>UC05_BuyTicket_without_payment</t>
-  </si>
-  <si>
-    <t>UC06_BuyTicket_without_view_receipt</t>
-  </si>
-  <si>
     <t>ScriptName</t>
   </si>
   <si>
@@ -631,10 +550,28 @@
     <t>continueButtonClick</t>
   </si>
   <si>
-    <t>Поиск билета без покупки с выбором рейса</t>
-  </si>
-  <si>
-    <t>Поиск билета без покупки без выбора рейса</t>
+    <t>Action_Transaction</t>
+  </si>
+  <si>
+    <t>UC_01_LoginLogout</t>
+  </si>
+  <si>
+    <t>UC_02_TicketSearchWithoutBuying</t>
+  </si>
+  <si>
+    <t>UC_03_TicketBuying</t>
+  </si>
+  <si>
+    <t>UC_04_ItineraryListBrowsing</t>
+  </si>
+  <si>
+    <t>UC_06_RegistraitionRandomUser</t>
+  </si>
+  <si>
+    <t>UC_07_TicketSearchWithoutBuyingWithFlightSelection</t>
+  </si>
+  <si>
+    <t>UC_05_CancelingFlight</t>
   </si>
 </sst>
 </file>
@@ -645,12 +582,28 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,7 +1068,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1594,12 +1547,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1607,10 +1558,81 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1621,39 +1643,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1663,132 +1659,140 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1797,16 +1801,16 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1822,25 +1826,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1852,38 +1856,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -1901,35 +1889,85 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="85">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 2" xfId="47" xr:uid="{F44FD7A3-72FF-408E-9967-0215D42D396B}"/>
+    <cellStyle name="20% — акцент1 3" xfId="67" xr:uid="{16682FBC-5F87-4B2F-92B8-B0E5D6A87C78}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 2" xfId="50" xr:uid="{6349BABE-FFBC-467A-BE14-71DCBC136802}"/>
+    <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{2382BD5C-BF30-47EF-AA40-8D35449753D4}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 2" xfId="53" xr:uid="{9D773B97-1B74-460C-85FC-DCFEAA2BFC1C}"/>
+    <cellStyle name="20% — акцент3 3" xfId="73" xr:uid="{8177714E-4541-494C-B5E6-9F42837C055C}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 2" xfId="56" xr:uid="{EEBD1F89-38B6-47D5-BE2A-380DA7FA60ED}"/>
+    <cellStyle name="20% — акцент4 3" xfId="76" xr:uid="{35DD3A36-8357-42F9-AB83-99D23020AAC4}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 2" xfId="59" xr:uid="{719F1B75-554B-43BC-B524-393C5D16B30B}"/>
+    <cellStyle name="20% — акцент5 3" xfId="79" xr:uid="{7251E309-D4DC-4851-AE6C-8C60534D578F}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 2" xfId="62" xr:uid="{91C95339-8876-4D3B-BC85-03A64033363C}"/>
+    <cellStyle name="20% — акцент6 3" xfId="82" xr:uid="{3A801C7F-41CD-4879-BD3A-9EEF0E88A01C}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 2" xfId="48" xr:uid="{F463C6A9-8D10-4250-AD06-2607BD3F04D7}"/>
+    <cellStyle name="40% — акцент1 3" xfId="68" xr:uid="{46FEDDD2-AB5F-47CF-A41B-B74863A01B37}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 2" xfId="51" xr:uid="{8009DAF8-D0A4-4BA0-8D97-43866B1E0991}"/>
+    <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{E6C2B769-62A7-4691-AB86-F184D03D030F}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 2" xfId="54" xr:uid="{49DF952F-5BF3-4E48-80C1-533182A3BBCA}"/>
+    <cellStyle name="40% — акцент3 3" xfId="74" xr:uid="{EA373F07-4AE7-4101-9182-5ED85DC7D0CC}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 2" xfId="57" xr:uid="{CE14BDD2-FDB5-414C-9223-13D63594A31C}"/>
+    <cellStyle name="40% — акцент4 3" xfId="77" xr:uid="{866EFCC4-88D9-4729-82DC-3A533FBA0FB4}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 2" xfId="60" xr:uid="{FF8F7B44-76E4-44D5-9FE2-963D888AA13C}"/>
+    <cellStyle name="40% — акцент5 3" xfId="80" xr:uid="{EFE68B30-C36A-4B7A-99D5-DFC153E3B154}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 2" xfId="63" xr:uid="{E9D145D3-52DE-4CFB-9FF4-5B6C4E1C3E56}"/>
+    <cellStyle name="40% — акцент6 3" xfId="83" xr:uid="{0EEC1F1F-06A1-47B0-8B56-F1C7AD55AAED}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 2" xfId="49" xr:uid="{A4EA0244-1421-42E4-B5BF-CEA3B5F53A7D}"/>
+    <cellStyle name="60% — акцент1 3" xfId="69" xr:uid="{A08D2FBA-BA90-420E-8306-F3EC7554E2A4}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 2" xfId="52" xr:uid="{F0DEA516-24F3-4A59-9545-CF5EAA8E3938}"/>
+    <cellStyle name="60% — акцент2 3" xfId="72" xr:uid="{220505E9-EBC5-4DBD-BED4-D98A5D718F7D}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 2" xfId="55" xr:uid="{B0163539-3F6D-4BA1-92A3-F9CF55C19644}"/>
+    <cellStyle name="60% — акцент3 3" xfId="75" xr:uid="{5F205D85-97CD-459B-97B6-09022DAEB282}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 2" xfId="58" xr:uid="{60971F2D-DA87-4111-94DE-A7B024E7C1DE}"/>
+    <cellStyle name="60% — акцент4 3" xfId="78" xr:uid="{EA8D9883-F7C2-416A-AF48-6262506F02AC}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 2" xfId="61" xr:uid="{591BD263-5BC7-475C-9E71-F5E970F14465}"/>
+    <cellStyle name="60% — акцент5 3" xfId="81" xr:uid="{C19B4866-2682-4BFB-8F76-BD8C7A5CA5C8}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 2" xfId="64" xr:uid="{40F6BE47-AFA5-4389-B0E1-23122C850AE3}"/>
+    <cellStyle name="60% — акцент6 3" xfId="84" xr:uid="{1171B724-2720-4B4F-9B60-F7BA007C145F}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1950,9 +1988,13 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный 4" xfId="45" xr:uid="{239778F4-79A0-43E6-A1B9-44DCDB8C5FB1}"/>
+    <cellStyle name="Обычный 5" xfId="65" xr:uid="{DA3F2F69-A75C-4CBE-9FA9-2FB8EDB25ECA}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Примечание 3" xfId="46" xr:uid="{3589E41F-034C-46EA-892E-9F488DD47175}"/>
+    <cellStyle name="Примечание 4" xfId="66" xr:uid="{76AB1714-41A9-4B82-BECB-778F4BD0EC48}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1972,9 +2014,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Maxim Mironov" refreshedDate="44812.025295717591" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="35" xr:uid="{76EFCDFD-5879-48D0-B2C0-8203517F41CC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Maxim Mironov" refreshedDate="44813.516496875003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="33" xr:uid="{76EFCDFD-5879-48D0-B2C0-8203517F41CC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H36" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H34" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
@@ -2024,9 +2066,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
   <r>
-    <s v="Логин"/>
+    <s v="UC_01_LoginLogout"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
@@ -2036,7 +2078,7 @@
     <n v="14.117647058823531"/>
   </r>
   <r>
-    <s v="Логин"/>
+    <s v="UC_01_LoginLogout"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -2046,7 +2088,7 @@
     <n v="14.117647058823531"/>
   </r>
   <r>
-    <s v="Логин"/>
+    <s v="UC_01_LoginLogout"/>
     <x v="2"/>
     <n v="1"/>
     <n v="2"/>
@@ -2056,7 +2098,7 @@
     <n v="14.117647058823531"/>
   </r>
   <r>
-    <s v="Логин"/>
+    <s v="UC_01_LoginLogout"/>
     <x v="3"/>
     <n v="1"/>
     <n v="2"/>
@@ -2066,7 +2108,57 @@
     <n v="14.117647058823531"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_02_TicketSearchWithoutBuying"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0.31578947368421051"/>
+    <n v="20"/>
+    <n v="6.3157894736842106"/>
+  </r>
+  <r>
+    <s v="UC_02_TicketSearchWithoutBuying"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0.31578947368421051"/>
+    <n v="20"/>
+    <n v="6.3157894736842106"/>
+  </r>
+  <r>
+    <s v="UC_02_TicketSearchWithoutBuying"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0.31578947368421051"/>
+    <n v="20"/>
+    <n v="6.3157894736842106"/>
+  </r>
+  <r>
+    <s v="UC_02_TicketSearchWithoutBuying"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0.31578947368421051"/>
+    <n v="20"/>
+    <n v="6.3157894736842106"/>
+  </r>
+  <r>
+    <s v="UC_02_TicketSearchWithoutBuying"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
@@ -2076,7 +2168,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
@@ -2086,7 +2178,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="4"/>
     <n v="1"/>
     <n v="2"/>
@@ -2096,7 +2188,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="5"/>
     <n v="1"/>
     <n v="2"/>
@@ -2106,7 +2198,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="6"/>
     <n v="1"/>
     <n v="2"/>
@@ -2116,17 +2208,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="71"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки с выбором рейса"/>
+    <s v="UC_07_TicketSearchWithoutBuyingWithFlightSelection"/>
     <x v="3"/>
     <n v="1"/>
     <n v="2"/>
@@ -2136,7 +2218,7 @@
     <n v="33.802816901408448"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="0"/>
     <n v="1"/>
     <n v="3"/>
@@ -2146,7 +2228,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="4"/>
     <n v="1"/>
     <n v="3"/>
@@ -2156,7 +2238,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="1"/>
     <n v="1"/>
     <n v="3"/>
@@ -2166,7 +2248,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="5"/>
     <n v="1"/>
     <n v="3"/>
@@ -2176,7 +2258,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="6"/>
     <n v="1"/>
     <n v="3"/>
@@ -2186,7 +2268,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="7"/>
     <n v="1"/>
     <n v="3"/>
@@ -2196,7 +2278,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="2"/>
     <n v="1"/>
     <n v="3"/>
@@ -2206,7 +2288,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Покупка билета"/>
+    <s v="UC_03_TicketBuying"/>
     <x v="3"/>
     <n v="1"/>
     <n v="3"/>
@@ -2216,67 +2298,7 @@
     <n v="58.064516129032256"/>
   </r>
   <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0.31578947368421051"/>
-    <n v="20"/>
-    <n v="6.3157894736842106"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0.31578947368421051"/>
-    <n v="20"/>
-    <n v="6.3157894736842106"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0.31578947368421051"/>
-    <n v="20"/>
-    <n v="6.3157894736842106"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0.31578947368421051"/>
-    <n v="20"/>
-    <n v="6.3157894736842106"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки без выбора рейса"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="190"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Удаление бронирования "/>
+    <s v="UC_05_CancelingFlight"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2286,7 +2308,7 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
+    <s v="UC_05_CancelingFlight"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2296,7 +2318,7 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
+    <s v="UC_05_CancelingFlight"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
@@ -2306,7 +2328,7 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
+    <s v="UC_05_CancelingFlight"/>
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
@@ -2316,7 +2338,7 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
+    <s v="UC_05_CancelingFlight"/>
     <x v="3"/>
     <n v="0"/>
     <n v="1"/>
@@ -2326,7 +2348,7 @@
     <n v="0"/>
   </r>
   <r>
-    <s v="Регистрация новых пользователей"/>
+    <s v="UC_06_RegistraitionRandomUser"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2336,7 +2358,7 @@
     <n v="32.432432432432435"/>
   </r>
   <r>
-    <s v="Регистрация новых пользователей"/>
+    <s v="UC_06_RegistraitionRandomUser"/>
     <x v="9"/>
     <n v="1"/>
     <n v="1"/>
@@ -2346,7 +2368,7 @@
     <n v="32.432432432432435"/>
   </r>
   <r>
-    <s v="Регистрация новых пользователей"/>
+    <s v="UC_06_RegistraitionRandomUser"/>
     <x v="10"/>
     <n v="1"/>
     <n v="1"/>
@@ -2356,7 +2378,7 @@
     <n v="32.432432432432435"/>
   </r>
   <r>
-    <s v="Регистрация новых пользователей"/>
+    <s v="UC_06_RegistraitionRandomUser"/>
     <x v="11"/>
     <n v="1"/>
     <n v="1"/>
@@ -2366,7 +2388,7 @@
     <n v="32.432432432432435"/>
   </r>
   <r>
-    <s v="Регистрация новых пользователей"/>
+    <s v="UC_06_RegistraitionRandomUser"/>
     <x v="3"/>
     <n v="0"/>
     <n v="1"/>
@@ -2379,7 +2401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84643BEB-4779-41B8-9BFF-92E95EAAF14B}" name="Сводная таблица2" cacheId="314" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84643BEB-4779-41B8-9BFF-92E95EAAF14B}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2732,15 +2754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
     <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
@@ -2759,96 +2781,96 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="73">
+      <c r="A2" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="67">
         <v>1</v>
       </c>
-      <c r="D2" s="67">
-        <f t="shared" ref="D2:D5" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
+      <c r="D2" s="62">
+        <f>VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="78">
-        <f t="shared" ref="E2:E5" si="1">VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
+      <c r="E2" s="70">
+        <f t="shared" ref="E2:E5" si="0">VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="F2" s="84">
-        <f t="shared" ref="F2:F5" si="2">60/E2*C2</f>
+      <c r="F2" s="76">
+        <f t="shared" ref="F2:F5" si="1">60/E2*C2</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="73">
         <v>20</v>
       </c>
-      <c r="H2" s="85">
-        <f t="shared" ref="H2:H5" si="3">D2*F2*G2</f>
+      <c r="H2" s="77">
+        <f t="shared" ref="H2:H5" si="2">D2*F2*G2</f>
         <v>14.117647058823531</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -2859,7 +2881,7 @@
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N2" s="23">
         <v>1.7749999999999999</v>
@@ -2890,51 +2912,51 @@
       </c>
       <c r="V2" s="38">
         <f>R2/W$2</f>
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="W2">
-        <f>SUM(R2:R6)</f>
-        <v>8</v>
+        <f>SUM(R2:R7)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="65">
+      <c r="A3" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="63">
+        <f t="shared" ref="D3:D5" si="3">VLOOKUP(A3,$M$1:$W$8,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E3" s="79">
+        <v>170</v>
+      </c>
+      <c r="F3" s="75">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="F3" s="83">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="G3" s="61">
+        <v>20</v>
+      </c>
+      <c r="H3" s="78">
         <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="G3" s="66">
-        <v>20</v>
-      </c>
-      <c r="H3" s="86">
-        <f t="shared" si="3"/>
         <v>14.117647058823531</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="15">
         <v>91.867333030440705</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="N3" s="23">
         <v>1.62</v>
@@ -2965,36 +2987,36 @@
       </c>
       <c r="V3" s="38">
         <f>R3/W$2</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="84">
         <v>1</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="79">
+        <v>170</v>
+      </c>
+      <c r="F4" s="75">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="F4" s="83">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="G4" s="61">
+        <v>20</v>
+      </c>
+      <c r="H4" s="78">
         <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="G4" s="66">
-        <v>20</v>
-      </c>
-      <c r="H4" s="86">
-        <f t="shared" si="3"/>
         <v>14.117647058823531</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -3005,7 +3027,7 @@
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="N4" s="23">
         <v>2.9750000000000001</v>
@@ -3036,47 +3058,47 @@
       </c>
       <c r="V4" s="38">
         <f t="shared" ref="V4:V5" si="7">R4/W$2</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
-        <v>67</v>
+      <c r="A5" s="95" t="s">
+        <v>95</v>
       </c>
       <c r="B5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="84">
         <v>1</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="72">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E5" s="80">
+        <v>170</v>
+      </c>
+      <c r="F5" s="79">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="F5" s="87">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="G5" s="74">
+        <v>20</v>
+      </c>
+      <c r="H5" s="80">
         <f t="shared" si="2"/>
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="G5" s="82">
-        <v>20</v>
-      </c>
-      <c r="H5" s="88">
-        <f t="shared" si="3"/>
         <v>14.117647058823531</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="15">
-        <v>98.18312250412491</v>
+        <v>98.183122504124924</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="N5" s="23">
         <v>1.2390000000000001</v>
@@ -3107,37 +3129,37 @@
       </c>
       <c r="V5" s="38">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="73">
+      <c r="A6" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="66">
         <v>1</v>
       </c>
-      <c r="D6" s="67">
-        <f>VLOOKUP(A6,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="81">
+      <c r="D6" s="53">
+        <f t="shared" ref="D6:D34" si="8">VLOOKUP(A6,$M$1:$W$8,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="70">
         <f>VLOOKUP(A6,$M$1:$W$8,5,FALSE)</f>
-        <v>71</v>
-      </c>
-      <c r="F6" s="84">
-        <f>60/E6*C6</f>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="G6" s="81">
+        <v>190</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" ref="F6:F34" si="9">60/E6*C6</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G6" s="73">
         <v>20</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="77">
         <f>D6*F6*G6</f>
-        <v>33.802816901408448</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>3</v>
@@ -3147,7 +3169,7 @@
       </c>
       <c r="K6" s="15"/>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="N6" s="23">
         <v>1.107</v>
@@ -3178,57 +3200,57 @@
       </c>
       <c r="V6" s="38">
         <f>R6/W$2</f>
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="A7" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="68">
-        <f>VLOOKUP(A7,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="D7" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="71">
         <f>VLOOKUP(A7,$M$1:$W$8,5,FALSE)</f>
-        <v>71</v>
-      </c>
-      <c r="F7" s="83">
-        <f>60/E7*C7</f>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="G7" s="66">
+        <v>190</v>
+      </c>
+      <c r="F7" s="75">
+        <f t="shared" si="9"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G7" s="61">
         <v>20</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="78">
         <f>D7*F7*G7</f>
-        <v>33.802816901408448</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="15">
         <v>24</v>
       </c>
       <c r="K7" s="15"/>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N7" s="23">
         <v>0.70899999999999996</v>
       </c>
       <c r="O7" s="31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P7" s="30">
         <f t="shared" si="4"/>
-        <v>10.709</v>
+        <v>15.709</v>
       </c>
       <c r="Q7" s="18">
         <v>170</v>
@@ -3240,1600 +3262,1529 @@
         <f>60/(Q7)</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="T7" s="21"/>
+      <c r="T7" s="21">
+        <v>20</v>
+      </c>
       <c r="U7" s="22">
+        <f>ROUND(R7*S7*T7,0)</f>
+        <v>14</v>
+      </c>
+      <c r="V7" s="38">
+        <f>R7/W$2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="71">
+        <f t="shared" ref="E8:E9" si="10">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="9"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G8" s="61">
+        <v>20</v>
+      </c>
+      <c r="H8" s="78">
+        <f t="shared" ref="H8:H9" si="11">D8*F8*G8</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>96.182163187855792</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="U8" s="22">
         <f>SUM(U2:U6)</f>
         <v>154</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V8" s="38">
         <f>SUM(V2:V6)</f>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="65">
+      <c r="D9" s="51">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D8" s="68">
-        <f>VLOOKUP(A8,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="66">
-        <f>VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
-        <v>71</v>
-      </c>
-      <c r="F8" s="83">
-        <f>60/E8*C8</f>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="G8" s="66">
+      <c r="E9" s="71">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="F9" s="75">
+        <f t="shared" si="9"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="G9" s="61">
         <v>20</v>
       </c>
-      <c r="H8" s="86">
-        <f>D8*F8*G8</f>
-        <v>33.802816901408448</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="15">
-        <v>96.182163187855792</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="65">
-        <v>1</v>
-      </c>
-      <c r="D9" s="68">
-        <f>VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="66">
-        <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
-        <v>71</v>
-      </c>
-      <c r="F9" s="83">
-        <f>60/E9*C9</f>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="G9" s="66">
-        <v>20</v>
-      </c>
-      <c r="H9" s="86">
-        <f>D9*F9*G9</f>
-        <v>33.802816901408448</v>
+      <c r="H9" s="78">
+        <f t="shared" si="11"/>
+        <v>6.3157894736842106</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="15">
         <v>168.73320199538091</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="65">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D10" s="68">
-        <f>VLOOKUP(A10,$M$1:$W$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="66">
-        <f>VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
-        <v>71</v>
-      </c>
-      <c r="F10" s="83">
-        <f>60/E10*C10</f>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="G10" s="66">
+      <c r="E10" s="72">
+        <f t="shared" ref="E10:E34" si="12">VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
+        <v>190</v>
+      </c>
+      <c r="F10" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="74">
         <v>20</v>
       </c>
-      <c r="H10" s="86">
-        <f>D10*F10*G10</f>
-        <v>33.802816901408448</v>
+      <c r="H10" s="80">
+        <f t="shared" ref="H10:H34" si="13">D10*F10*G10</f>
+        <v>0</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="15">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="65">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
-        <f>VLOOKUP(A11,$M$1:$W$8,6,FALSE)</f>
+      <c r="A11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="67">
+        <v>1</v>
+      </c>
+      <c r="D11" s="62">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E11" s="66">
-        <f>VLOOKUP(A11,$M$1:$W$8,5,FALSE)</f>
+      <c r="E11" s="73">
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="F11" s="83">
-        <f>60/E11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="66">
+      <c r="F11" s="76">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="G11" s="73">
         <v>20</v>
       </c>
-      <c r="H11" s="86">
-        <f>D11*F11*G11</f>
-        <v>0</v>
+      <c r="H11" s="77">
+        <f t="shared" si="13"/>
+        <v>33.802816901408448</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" s="15">
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="77">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="60">
         <v>1</v>
       </c>
-      <c r="D12" s="69">
-        <f>VLOOKUP(A12,$M$1:$W$8,6,FALSE)</f>
+      <c r="D12" s="63">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E12" s="82">
-        <f>VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
+      <c r="E12" s="61">
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="F12" s="87">
-        <f>60/E12*C12</f>
+      <c r="F12" s="75">
+        <f t="shared" si="9"/>
         <v>0.84507042253521125</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="61">
         <v>20</v>
       </c>
-      <c r="H12" s="88">
-        <f>D12*F12*G12</f>
+      <c r="H12" s="78">
+        <f t="shared" si="13"/>
         <v>33.802816901408448</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" s="15">
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="60">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="61">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="F13" s="75">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="G13" s="61">
+        <v>20</v>
+      </c>
+      <c r="H13" s="78">
+        <f t="shared" si="13"/>
+        <v>33.802816901408448</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="15">
+        <v>98.183122504124924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="70">
+      <c r="C14" s="60">
         <v>1</v>
       </c>
-      <c r="D13" s="51">
-        <f>VLOOKUP(A13,$M$1:$W$8,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="78">
-        <f>VLOOKUP(A13,$M$1:$W$8,5,FALSE)</f>
-        <v>62</v>
-      </c>
-      <c r="F13" s="84">
-        <f>60/E13*C13</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G13" s="81">
+      <c r="D14" s="63">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="61">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="F14" s="75">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="G14" s="61">
         <v>20</v>
       </c>
-      <c r="H13" s="85">
-        <f>D13*F13*G13</f>
-        <v>58.064516129032256</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="15">
-        <v>98.18312250412491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51">
-        <f>VLOOKUP(A14,$M$1:$W$8,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="79">
-        <f>VLOOKUP(A14,$M$1:$W$8,5,FALSE)</f>
-        <v>62</v>
-      </c>
-      <c r="F14" s="83">
-        <f>60/E14*C14</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G14" s="66">
-        <v>20</v>
-      </c>
-      <c r="H14" s="86">
-        <f>D14*F14*G14</f>
-        <v>58.064516129032256</v>
+      <c r="H14" s="78">
+        <f t="shared" si="13"/>
+        <v>33.802816901408448</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="15">
         <v>974.79650630046945</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="A15" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="60">
         <v>1</v>
       </c>
-      <c r="D15" s="51">
-        <f>VLOOKUP(A15,$M$1:$W$8,6,FALSE)</f>
+      <c r="D15" s="63">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="61">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="F15" s="75">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="G15" s="61">
+        <v>20</v>
+      </c>
+      <c r="H15" s="78">
+        <f t="shared" si="13"/>
+        <v>33.802816901408448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="69">
+        <v>1</v>
+      </c>
+      <c r="D16" s="64">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="74">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="F16" s="79">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="G16" s="74">
+        <v>20</v>
+      </c>
+      <c r="H16" s="80">
+        <f t="shared" si="13"/>
+        <v>33.802816901408448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="66">
+        <v>1</v>
+      </c>
+      <c r="D17" s="53">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E15" s="79">
-        <f>VLOOKUP(A15,$M$1:$W$8,5,FALSE)</f>
+      <c r="E17" s="70">
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="F15" s="83">
-        <f>60/E15*C15</f>
+      <c r="F17" s="76">
+        <f t="shared" si="9"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G17" s="73">
         <v>20</v>
       </c>
-      <c r="H15" s="86">
-        <f>D15*F15*G15</f>
+      <c r="H17" s="77">
+        <f t="shared" si="13"/>
         <v>58.064516129032256</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="51">
-        <f>VLOOKUP(A16,$M$1:$W$8,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="79">
-        <f>VLOOKUP(A16,$M$1:$W$8,5,FALSE)</f>
-        <v>62</v>
-      </c>
-      <c r="F16" s="83">
-        <f>60/E16*C16</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G16" s="66">
-        <v>20</v>
-      </c>
-      <c r="H16" s="86">
-        <f>D16*F16*G16</f>
-        <v>58.064516129032256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51">
-        <f>VLOOKUP(A17,$M$1:$W$8,6,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="79">
-        <f>VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
-        <v>62</v>
-      </c>
-      <c r="F17" s="83">
-        <f>60/E17*C17</f>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G17" s="66">
-        <v>20</v>
-      </c>
-      <c r="H17" s="86">
-        <f>D17*F17*G17</f>
-        <v>58.064516129032256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>3</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="51">
-        <f>VLOOKUP(A18,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E18" s="79">
-        <f>VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
+      <c r="E18" s="71">
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="F18" s="83">
-        <f>60/E18*C18</f>
+      <c r="F18" s="75">
+        <f t="shared" si="9"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="61">
         <v>20</v>
       </c>
-      <c r="H18" s="86">
-        <f>D18*F18*G18</f>
+      <c r="H18" s="78">
+        <f t="shared" si="13"/>
         <v>58.064516129032256</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>4</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>0</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
       <c r="D19" s="51">
-        <f>VLOOKUP(A19,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E19" s="79">
-        <f>VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
+      <c r="E19" s="71">
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="F19" s="83">
-        <f>60/E19*C19</f>
+      <c r="F19" s="75">
+        <f t="shared" si="9"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="61">
         <v>20</v>
       </c>
-      <c r="H19" s="86">
-        <f>D19*F19*G19</f>
+      <c r="H19" s="78">
+        <f t="shared" si="13"/>
         <v>58.064516129032256</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="76">
+      <c r="C20" s="29">
         <v>1</v>
       </c>
-      <c r="D20" s="52">
-        <f>VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
+      <c r="D20" s="51">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E20" s="80">
-        <f>VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
+      <c r="E20" s="71">
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="F20" s="87">
-        <f>60/E20*C20</f>
+      <c r="F20" s="75">
+        <f t="shared" si="9"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="61">
         <v>20</v>
       </c>
-      <c r="H20" s="88">
-        <f>D20*F20*G20</f>
+      <c r="H20" s="78">
+        <f t="shared" si="13"/>
         <v>58.064516129032256</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="72">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="53">
-        <f>VLOOKUP(A21,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="78">
-        <f>VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="F21" s="84">
-        <f>60/E21*C21</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G21" s="81">
+      <c r="D21" s="51">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="71">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="F21" s="75">
+        <f t="shared" si="9"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G21" s="61">
         <v>20</v>
       </c>
-      <c r="H21" s="85">
-        <f>D21*F21*G21</f>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="97" t="s">
-        <v>0</v>
+      <c r="H21" s="78">
+        <f t="shared" si="13"/>
+        <v>58.064516129032256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
       </c>
       <c r="D22" s="51">
-        <f>VLOOKUP(A22,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="79">
-        <f>VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="F22" s="83">
-        <f>60/E22*C22</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G22" s="66">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="71">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="F22" s="75">
+        <f t="shared" si="9"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G22" s="61">
         <v>20</v>
       </c>
-      <c r="H22" s="86">
-        <f>D22*F22*G22</f>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>79</v>
+      <c r="H22" s="78">
+        <f t="shared" si="13"/>
+        <v>58.064516129032256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>4</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
       </c>
       <c r="D23" s="51">
-        <f>VLOOKUP(A23,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="71">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" si="9"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G23" s="61">
+        <v>20</v>
+      </c>
+      <c r="H23" s="78">
+        <f t="shared" si="13"/>
+        <v>58.064516129032256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="68">
         <v>1</v>
       </c>
-      <c r="E23" s="79">
-        <f t="shared" ref="E23:E24" si="8">VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="F23" s="83">
-        <f>60/E23*C23</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G23" s="66">
+      <c r="D24" s="52">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="72">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="F24" s="79">
+        <f t="shared" si="9"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G24" s="74">
         <v>20</v>
       </c>
-      <c r="H23" s="86">
-        <f t="shared" ref="H23:H24" si="9">D23*F23*G23</f>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="H24" s="80">
+        <f t="shared" si="13"/>
+        <v>58.064516129032256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="65">
+        <v>1</v>
+      </c>
+      <c r="D25" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="82">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="75">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="61">
+        <v>20</v>
+      </c>
+      <c r="H25" s="78">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="82">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="75">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="G26" s="61">
+        <v>20</v>
+      </c>
+      <c r="H26" s="78">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1</v>
+      </c>
+      <c r="D27" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="82">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="75">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="G27" s="61">
+        <v>20</v>
+      </c>
+      <c r="H27" s="78">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="86" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51">
-        <f>VLOOKUP(A24,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="79">
-        <f t="shared" si="8"/>
-        <v>190</v>
-      </c>
-      <c r="F24" s="83">
-        <f>60/E24*C24</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G24" s="66">
-        <v>20</v>
-      </c>
-      <c r="H24" s="86">
-        <f t="shared" si="9"/>
-        <v>6.3157894736842106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25" s="51">
-        <f>VLOOKUP(A25,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="79">
-        <f>VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="F25" s="83">
-        <f>60/E25*C25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="66">
-        <v>20</v>
-      </c>
-      <c r="H25" s="86">
-        <f>D25*F25*G25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="76">
-        <v>0</v>
-      </c>
-      <c r="D26" s="52">
-        <f>VLOOKUP(A26,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="80">
-        <f>VLOOKUP(A26,$M$1:$W$8,5,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="F26" s="87">
-        <f>60/E26*C26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="82">
-        <v>20</v>
-      </c>
-      <c r="H26" s="88">
-        <f>D26*F26*G26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="72">
-        <v>1</v>
-      </c>
-      <c r="D27" s="53">
-        <f>VLOOKUP(A27,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="89">
-        <f>VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="F27" s="84">
-        <f>60/E27*C27</f>
-        <v>1.2</v>
-      </c>
-      <c r="G27" s="81">
-        <v>20</v>
-      </c>
-      <c r="H27" s="85">
-        <f>D27*F27*G27</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>0</v>
       </c>
       <c r="C28" s="29">
         <v>1</v>
       </c>
       <c r="D28" s="51">
-        <f>VLOOKUP(A28,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E28" s="90">
-        <f>VLOOKUP(A28,$M$1:$W$8,5,FALSE)</f>
+      <c r="E28" s="82">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="F28" s="83">
-        <f>60/E28*C28</f>
+      <c r="F28" s="75">
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="61">
         <v>20</v>
       </c>
-      <c r="H28" s="86">
-        <f>D28*F28*G28</f>
+      <c r="H28" s="78">
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="29">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="68">
+        <v>0</v>
+      </c>
+      <c r="D29" s="52">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D29" s="51">
-        <f>VLOOKUP(A29,$M$1:$W$8,6,FALSE)</f>
+      <c r="E29" s="83">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F29" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="74">
+        <v>20</v>
+      </c>
+      <c r="H29" s="80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="65">
         <v>1</v>
       </c>
-      <c r="E29" s="90">
-        <f>VLOOKUP(A29,$M$1:$W$8,5,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="F29" s="83">
-        <f>60/E29*C29</f>
-        <v>1.2</v>
-      </c>
-      <c r="G29" s="66">
+      <c r="D30" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="81">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="F30" s="76">
+        <f t="shared" si="9"/>
+        <v>1.6216216216216217</v>
+      </c>
+      <c r="G30" s="73">
         <v>20</v>
       </c>
-      <c r="H29" s="86">
-        <f>D29*F29*G29</f>
-        <v>24</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>305</v>
-      </c>
-      <c r="M29">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="29">
+      <c r="H30" s="77">
+        <f t="shared" si="13"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="29">
         <v>1</v>
       </c>
-      <c r="D30" s="51">
-        <f>VLOOKUP(A30,$M$1:$W$8,6,FALSE)</f>
+      <c r="D31" s="51">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E30" s="90">
-        <f>VLOOKUP(A30,$M$1:$W$8,5,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="F30" s="83">
-        <f>60/E30*C30</f>
-        <v>1.2</v>
-      </c>
-      <c r="G30" s="66">
+      <c r="E31" s="82">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="9"/>
+        <v>1.6216216216216217</v>
+      </c>
+      <c r="G31" s="61">
         <v>20</v>
       </c>
-      <c r="H30" s="86">
-        <f>D30*F30*G30</f>
-        <v>24</v>
-      </c>
-      <c r="K30">
-        <v>93</v>
-      </c>
-      <c r="L30">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="76">
-        <v>0</v>
-      </c>
-      <c r="D31" s="52">
-        <f>VLOOKUP(A31,$M$1:$W$8,6,FALSE)</f>
+      <c r="H31" s="78">
+        <f t="shared" si="13"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="29">
         <v>1</v>
       </c>
-      <c r="E31" s="91">
-        <f>VLOOKUP(A31,$M$1:$W$8,5,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="F31" s="87">
-        <f>60/E31*C31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="82">
+      <c r="D32" s="51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="82">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="9"/>
+        <v>1.6216216216216217</v>
+      </c>
+      <c r="G32" s="61">
         <v>20</v>
       </c>
-      <c r="H31" s="88">
-        <f>D31*F31*G31</f>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>88</v>
-      </c>
-      <c r="L31">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="70" t="s">
+      <c r="H32" s="78">
+        <f t="shared" si="13"/>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="86" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="70">
-        <v>1</v>
-      </c>
-      <c r="D32" s="51">
-        <f>VLOOKUP(A32,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="89">
-        <f>VLOOKUP(A32,$M$1:$W$8,5,FALSE)</f>
-        <v>37</v>
-      </c>
-      <c r="F32" s="84">
-        <f>60/E32*C32</f>
-        <v>1.6216216216216217</v>
-      </c>
-      <c r="G32" s="81">
-        <v>20</v>
-      </c>
-      <c r="H32" s="85">
-        <f>D32*F32*G32</f>
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="29">
         <v>1</v>
       </c>
       <c r="D33" s="51">
-        <f>VLOOKUP(A33,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E33" s="90">
-        <f>VLOOKUP(A33,$M$1:$W$8,5,FALSE)</f>
+      <c r="E33" s="82">
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
-      <c r="F33" s="83">
-        <f>60/E33*C33</f>
+      <c r="F33" s="75">
+        <f t="shared" si="9"/>
         <v>1.6216216216216217</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="61">
         <v>20</v>
       </c>
-      <c r="H33" s="86">
-        <f>D33*F33*G33</f>
+      <c r="H33" s="78">
+        <f t="shared" si="13"/>
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0</v>
+      </c>
+      <c r="D34" s="52">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="83">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="F34" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="74">
+        <v>20</v>
+      </c>
+      <c r="H34" s="80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="99"/>
+    </row>
+    <row r="45" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="43">
+        <v>520</v>
+      </c>
+      <c r="C46" s="27">
+        <f t="shared" ref="C46:C57" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A46)*3</f>
+        <v>506.19960598614273</v>
+      </c>
+      <c r="D46" s="57">
+        <f t="shared" ref="D46:D58" si="15">1-B46/C46</f>
+        <v>-2.7262751394229845E-2</v>
+      </c>
+      <c r="E46" s="55" t="str">
+        <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
+        <v>openHomePage</v>
+      </c>
+      <c r="F46" s="59">
+        <f t="shared" ref="F46:F57" si="16">C46/3</f>
+        <v>168.73320199538091</v>
+      </c>
+      <c r="G46" s="50">
+        <f>VLOOKUP(E46,SummaryReport!A:J,8,FALSE)</f>
+        <v>169</v>
+      </c>
+      <c r="H46" s="25">
+        <f>1-F46/G46</f>
+        <v>1.5786864178644056E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="43">
+        <v>422</v>
+      </c>
+      <c r="C47" s="27">
+        <f t="shared" si="14"/>
+        <v>408.90230868884538</v>
+      </c>
+      <c r="D47" s="57">
+        <f t="shared" si="15"/>
+        <v>-3.2031345954373958E-2</v>
+      </c>
+      <c r="E47" s="55" t="str">
+        <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
+        <v>login</v>
+      </c>
+      <c r="F47" s="59">
+        <f t="shared" si="16"/>
+        <v>136.30076956294846</v>
+      </c>
+      <c r="G47" s="50">
+        <f>VLOOKUP(E47,SummaryReport!A:J,8,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="H47" s="25">
+        <f>1-F47/G47</f>
+        <v>-2.2115409040328604E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="43">
+        <v>305</v>
+      </c>
+      <c r="C48" s="27">
+        <f t="shared" si="14"/>
+        <v>294.54936751237477</v>
+      </c>
+      <c r="D48" s="57">
+        <f t="shared" si="15"/>
+        <v>-3.5480071051879447E-2</v>
+      </c>
+      <c r="E48" s="55" t="str">
+        <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
+        <v>flightsBottonClick</v>
+      </c>
+      <c r="F48" s="59">
+        <f t="shared" si="16"/>
+        <v>98.183122504124924</v>
+      </c>
+      <c r="G48" s="50">
+        <f>VLOOKUP(E48,SummaryReport!A:J,8,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="H48" s="25">
+        <f>1-F48/G48</f>
+        <v>-1.8685969808664993E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="43">
+        <v>282</v>
+      </c>
+      <c r="C49" s="27">
+        <f t="shared" si="14"/>
+        <v>294.54936751237477</v>
+      </c>
+      <c r="D49" s="54">
+        <f t="shared" si="15"/>
+        <v>4.2605311355311426E-2</v>
+      </c>
+      <c r="E49" s="55" t="str">
+        <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
+        <v>startFindingFlights</v>
+      </c>
+      <c r="F49" s="59">
+        <f t="shared" si="16"/>
+        <v>98.183122504124924</v>
+      </c>
+      <c r="G49" s="50">
+        <f>VLOOKUP(E49,SummaryReport!A:J,8,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="H49" s="25">
+        <f t="shared" ref="H49:H57" si="17">1-F49/G49</f>
+        <v>-1.8685969808664993E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="43">
+        <v>270</v>
+      </c>
+      <c r="C50" s="27">
+        <f t="shared" si="14"/>
+        <v>275.60199909132211</v>
+      </c>
+      <c r="D50" s="54">
+        <f t="shared" si="15"/>
+        <v>2.0326409495548869E-2</v>
+      </c>
+      <c r="E50" s="55" t="str">
+        <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
+        <v>choseFlightTime</v>
+      </c>
+      <c r="F50" s="59">
+        <f t="shared" si="16"/>
+        <v>91.867333030440705</v>
+      </c>
+      <c r="G50" s="50">
+        <f>VLOOKUP(E50,SummaryReport!A:J,8,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="H50" s="25">
+        <f t="shared" si="17"/>
+        <v>1.4420322778184724E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="43">
+        <v>175</v>
+      </c>
+      <c r="C51" s="27">
+        <f t="shared" si="14"/>
+        <v>174.19354838709677</v>
+      </c>
+      <c r="D51" s="54">
+        <f t="shared" si="15"/>
+        <v>-4.6296296296297612E-3</v>
+      </c>
+      <c r="E51" s="55" t="str">
+        <f>VLOOKUP(A51,Соответствие!A:B,2,FALSE)</f>
+        <v>paymentDetails</v>
+      </c>
+      <c r="F51" s="59">
+        <f t="shared" si="16"/>
+        <v>58.064516129032256</v>
+      </c>
+      <c r="G51" s="50">
+        <f>VLOOKUP(E51,SummaryReport!A:J,8,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="H51" s="25">
+        <f t="shared" si="17"/>
+        <v>-1.1123470522802492E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="43">
+        <v>280</v>
+      </c>
+      <c r="C52" s="27">
+        <f t="shared" si="14"/>
+        <v>288.54648956356738</v>
+      </c>
+      <c r="D52" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9619107744107809E-2</v>
+      </c>
+      <c r="E52" s="55" t="str">
+        <f>VLOOKUP(A52,Соответствие!A:B,2,FALSE)</f>
+        <v>browsingItenerary</v>
+      </c>
+      <c r="F52" s="59">
+        <f t="shared" si="16"/>
+        <v>96.182163187855792</v>
+      </c>
+      <c r="G52" s="50">
+        <f>VLOOKUP(E52,SummaryReport!A:J,8,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H52" s="25">
+        <f t="shared" si="17"/>
+        <v>8.4313073416928397E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="43">
+        <v>73</v>
+      </c>
+      <c r="C53" s="27">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="D53" s="54">
+        <f t="shared" si="15"/>
+        <v>-1.388888888888884E-2</v>
+      </c>
+      <c r="E53" s="55" t="str">
+        <f>VLOOKUP(A53,Соответствие!A:B,2,FALSE)</f>
+        <v>CancelingFlight</v>
+      </c>
+      <c r="F53" s="59">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="G53" s="50">
+        <f>VLOOKUP(E53,SummaryReport!A:J,8,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="H53" s="25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="43">
+        <v>326</v>
+      </c>
+      <c r="C54" s="27">
+        <f t="shared" si="14"/>
+        <v>317.95494026779272</v>
+      </c>
+      <c r="D54" s="54">
+        <f t="shared" si="15"/>
+        <v>-2.5302515272860537E-2</v>
+      </c>
+      <c r="E54" s="55" t="str">
+        <f>VLOOKUP(A54,Соответствие!A:B,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="F54" s="59">
+        <f t="shared" si="16"/>
+        <v>105.98498008926424</v>
+      </c>
+      <c r="G54" s="50">
+        <f>VLOOKUP(E54,SummaryReport!A:J,8,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="H54" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4861673900538124E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="29">
-        <v>1</v>
-      </c>
-      <c r="D34" s="51">
-        <f>VLOOKUP(A34,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="90">
-        <f>VLOOKUP(A34,$M$1:$W$8,5,FALSE)</f>
-        <v>37</v>
-      </c>
-      <c r="F34" s="83">
-        <f>60/E34*C34</f>
-        <v>1.6216216216216217</v>
-      </c>
-      <c r="G34" s="66">
-        <v>20</v>
-      </c>
-      <c r="H34" s="86">
-        <f>D34*F34*G34</f>
+      <c r="B55" s="43">
+        <v>97</v>
+      </c>
+      <c r="C55" s="27">
+        <f t="shared" si="14"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D55" s="54">
+        <f t="shared" si="15"/>
+        <v>3.0555555555555891E-3</v>
+      </c>
+      <c r="E55" s="55" t="str">
+        <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
+        <v>signUpNowButtonClick</v>
+      </c>
+      <c r="F55" s="59">
+        <f t="shared" si="16"/>
         <v>32.432432432432435</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="29">
-        <v>1</v>
-      </c>
-      <c r="D35" s="51">
-        <f>VLOOKUP(A35,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="90">
-        <f>VLOOKUP(A35,$M$1:$W$8,5,FALSE)</f>
-        <v>37</v>
-      </c>
-      <c r="F35" s="83">
-        <f>60/E35*C35</f>
-        <v>1.6216216216216217</v>
-      </c>
-      <c r="G35" s="66">
-        <v>20</v>
-      </c>
-      <c r="H35" s="86">
-        <f>D35*F35*G35</f>
+      <c r="G55" s="50">
+        <f>VLOOKUP(E55,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H55" s="25">
+        <f t="shared" si="17"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="43">
+        <v>97</v>
+      </c>
+      <c r="C56" s="27">
+        <f t="shared" si="14"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D56" s="54">
+        <f t="shared" si="15"/>
+        <v>3.0555555555555891E-3</v>
+      </c>
+      <c r="E56" s="55" t="str">
+        <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
+        <v>newUserRegistration</v>
+      </c>
+      <c r="F56" s="59">
+        <f t="shared" si="16"/>
         <v>32.432432432432435</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="29">
-        <v>0</v>
-      </c>
-      <c r="D36" s="52">
-        <f>VLOOKUP(A36,$M$1:$W$8,6,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="91">
-        <f>VLOOKUP(A36,$M$1:$W$8,5,FALSE)</f>
-        <v>37</v>
-      </c>
-      <c r="F36" s="87">
-        <f>60/E36*C36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="82">
-        <v>20</v>
-      </c>
-      <c r="H36" s="88">
-        <f>D36*F36*G36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="63"/>
-    </row>
-    <row r="47" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="G56" s="50">
+        <f>VLOOKUP(E56,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H56" s="25">
+        <f t="shared" si="17"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
         <v>63</v>
-      </c>
-      <c r="B48" s="43">
-        <v>520</v>
-      </c>
-      <c r="C48" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A48)*3</f>
-        <v>506.19960598614273</v>
-      </c>
-      <c r="D48" s="58">
-        <f>1-B48/C48</f>
-        <v>-2.7262751394229845E-2</v>
-      </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="55" t="str">
-        <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
-        <v>openHomePage</v>
-      </c>
-      <c r="G48" s="61">
-        <f>C48/3</f>
-        <v>168.73320199538091</v>
-      </c>
-      <c r="H48" s="50" t="e">
-        <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" s="25" t="e">
-        <f>1-G48/H48</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="43">
-        <v>422</v>
-      </c>
-      <c r="C49" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A49)*3</f>
-        <v>408.90230868884538</v>
-      </c>
-      <c r="D49" s="58">
-        <f>1-B49/C49</f>
-        <v>-3.2031345954373958E-2</v>
-      </c>
-      <c r="E49" s="56"/>
-      <c r="F49" s="55" t="str">
-        <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
-        <v>login</v>
-      </c>
-      <c r="G49" s="61">
-        <f>C49/3</f>
-        <v>136.30076956294846</v>
-      </c>
-      <c r="H49" s="50">
-        <v>26</v>
-      </c>
-      <c r="I49" s="25">
-        <f>1-G49/H49</f>
-        <v>-4.2423372908826327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="43">
-        <v>305</v>
-      </c>
-      <c r="C50" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A50)*3</f>
-        <v>294.54936751237472</v>
-      </c>
-      <c r="D50" s="58">
-        <f>1-B50/C50</f>
-        <v>-3.5480071051879669E-2</v>
-      </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="55" t="str">
-        <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
-        <v>flightsBottonClick</v>
-      </c>
-      <c r="G50" s="61">
-        <f>C50/3</f>
-        <v>98.18312250412491</v>
-      </c>
-      <c r="H50" s="50" t="e">
-        <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="43">
-        <v>282</v>
-      </c>
-      <c r="C51" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A51)*3</f>
-        <v>294.54936751237472</v>
-      </c>
-      <c r="D51" s="54">
-        <f>1-B51/C51</f>
-        <v>4.2605311355311204E-2</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="55" t="str">
-        <f>VLOOKUP(A51,Соответствие!A:B,2,FALSE)</f>
-        <v>startFindingFlights</v>
-      </c>
-      <c r="G51" s="61">
-        <f>C51/3</f>
-        <v>98.18312250412491</v>
-      </c>
-      <c r="H51" s="50" t="e">
-        <f>VLOOKUP(F51,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" s="25" t="e">
-        <f>1-G51/H51</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="43">
-        <v>270</v>
-      </c>
-      <c r="C52" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A52)*3</f>
-        <v>275.60199909132211</v>
-      </c>
-      <c r="D52" s="54">
-        <f>1-B52/C52</f>
-        <v>2.0326409495548869E-2</v>
-      </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="55" t="str">
-        <f>VLOOKUP(A52,Соответствие!A:B,2,FALSE)</f>
-        <v>choseFlightTime</v>
-      </c>
-      <c r="G52" s="61">
-        <f>C52/3</f>
-        <v>91.867333030440705</v>
-      </c>
-      <c r="H52" s="50" t="e">
-        <f>VLOOKUP(F52,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" s="25" t="e">
-        <f>1-G52/H52</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="43">
-        <v>175</v>
-      </c>
-      <c r="C53" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A53)*3</f>
-        <v>174.19354838709677</v>
-      </c>
-      <c r="D53" s="54">
-        <f>1-B53/C53</f>
-        <v>-4.6296296296297612E-3</v>
-      </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="55" t="str">
-        <f>VLOOKUP(A53,Соответствие!A:B,2,FALSE)</f>
-        <v>paymentDetails</v>
-      </c>
-      <c r="G53" s="61">
-        <f>C53/3</f>
-        <v>58.064516129032256</v>
-      </c>
-      <c r="H53" s="50" t="e">
-        <f>VLOOKUP(F53,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" s="25" t="e">
-        <f>1-G53/H53</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="43">
-        <v>280</v>
-      </c>
-      <c r="C54" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A54)*3</f>
-        <v>288.54648956356738</v>
-      </c>
-      <c r="D54" s="54">
-        <f>1-B54/C54</f>
-        <v>2.9619107744107809E-2</v>
-      </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="55" t="str">
-        <f>VLOOKUP(A54,Соответствие!A:B,2,FALSE)</f>
-        <v>browsingItenerary</v>
-      </c>
-      <c r="G54" s="61">
-        <f>C54/3</f>
-        <v>96.182163187855792</v>
-      </c>
-      <c r="H54" s="50" t="e">
-        <f>VLOOKUP(F54,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I54" s="25" t="e">
-        <f>1-G54/H54</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="43">
-        <v>73</v>
-      </c>
-      <c r="C55" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
-        <v>72</v>
-      </c>
-      <c r="D55" s="54">
-        <f>1-B55/C55</f>
-        <v>-1.388888888888884E-2</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="55" t="str">
-        <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
-        <v>CancelingFlight</v>
-      </c>
-      <c r="G55" s="61">
-        <f>C55/3</f>
-        <v>24</v>
-      </c>
-      <c r="H55" s="50" t="e">
-        <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I55" s="25" t="e">
-        <f>1-G55/H55</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="43">
-        <v>326</v>
-      </c>
-      <c r="C56" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
-        <v>317.95494026779272</v>
-      </c>
-      <c r="D56" s="54">
-        <f>1-B56/C56</f>
-        <v>-2.5302515272860537E-2</v>
-      </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="55" t="str">
-        <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
-        <v>logout</v>
-      </c>
-      <c r="G56" s="61">
-        <f>C56/3</f>
-        <v>105.98498008926424</v>
-      </c>
-      <c r="H56" s="50" t="e">
-        <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I56" s="25" t="e">
-        <f>1-G56/H56</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>65</v>
       </c>
       <c r="B57" s="43">
         <v>97</v>
       </c>
       <c r="C57" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" si="14"/>
         <v>97.297297297297305</v>
       </c>
       <c r="D57" s="54">
-        <f>1-B57/C57</f>
+        <f t="shared" si="15"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="55" t="str">
+      <c r="E57" s="55" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
-        <v>signUpNowButtonClick</v>
-      </c>
-      <c r="G57" s="61">
-        <f>C57/3</f>
+        <v>continueButtonClick</v>
+      </c>
+      <c r="F57" s="59">
+        <f t="shared" si="16"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H57" s="50"/>
-      <c r="I57" s="25" t="e">
-        <f>1-G57/H57</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
+      <c r="G57" s="50">
+        <f>VLOOKUP(E57,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H57" s="25">
+        <f t="shared" si="17"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="46">
+        <f>SUM(B46:B57)</f>
+        <v>2944</v>
+      </c>
+      <c r="C58" s="26">
+        <f>SUM(C46:C57)</f>
+        <v>2924.3895189014092</v>
+      </c>
+      <c r="D58" s="24">
+        <f t="shared" si="15"/>
+        <v>-6.7058375677524484E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="43">
-        <v>97</v>
-      </c>
-      <c r="C58" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A58)*3</f>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D58" s="54">
-        <f>1-B58/C58</f>
-        <v>3.0555555555555891E-3</v>
-      </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="55" t="str">
-        <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
-        <v>newUserRegistration</v>
-      </c>
-      <c r="G58" s="61">
-        <f>C58/3</f>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="25" t="e">
-        <f>1-G58/H58</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="43">
-        <v>97</v>
-      </c>
-      <c r="C59" s="27">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A59)*3</f>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="D59" s="54">
-        <f>1-B59/C59</f>
-        <v>3.0555555555555891E-3</v>
-      </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="55" t="str">
-        <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
-        <v>continueButtonClick</v>
-      </c>
-      <c r="G59" s="61">
-        <f>C59/3</f>
-        <v>32.432432432432435</v>
-      </c>
-      <c r="H59" s="50"/>
-      <c r="I59" s="25" t="e">
-        <f>1-G59/H59</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="46">
-        <f>SUM(B48:B59)</f>
-        <v>2944</v>
-      </c>
-      <c r="C60" s="26">
-        <f>SUM(C48:C59)</f>
-        <v>2924.3895189014092</v>
-      </c>
-      <c r="D60" s="24">
-        <f>1-B60/C60</f>
-        <v>-6.7058375677524484E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="B71" s="35">
+        <f>124/3</f>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="C71" s="39">
+        <v>57</v>
+      </c>
+      <c r="D71" s="35">
+        <f>60/C71</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E71" s="49">
+        <v>20</v>
+      </c>
+      <c r="F71" s="47">
+        <f>B71/(D71*E71)</f>
+        <v>1.9633333333333336</v>
+      </c>
+      <c r="G71" s="20">
+        <f>ROUND(F71,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H71" s="20">
+        <f>G71*D71*E71</f>
+        <v>42.105263157894733</v>
+      </c>
+      <c r="I71" s="33">
+        <f>1-B71/H71</f>
+        <v>1.8333333333333202E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s">
-        <v>109</v>
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="35">
+        <f>150/3</f>
+        <v>50</v>
+      </c>
+      <c r="C72" s="39">
+        <v>25</v>
+      </c>
+      <c r="D72" s="35">
+        <f t="shared" ref="D72:D75" si="18">60/C72</f>
+        <v>2.4</v>
+      </c>
+      <c r="E72" s="49">
+        <v>20</v>
+      </c>
+      <c r="F72" s="47">
+        <f>B72/(D72*E72)</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="G72" s="20">
+        <f t="shared" ref="G72:G75" si="19">ROUND(F72,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" ref="H72:H75" si="20">G72*D72*E72</f>
+        <v>48</v>
+      </c>
+      <c r="I72" s="33">
+        <f>1-B72/H72</f>
+        <v>-4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="35">
-        <f>124/3</f>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="C73" s="39">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="B73" s="36">
+        <f>30/3</f>
+        <v>10</v>
+      </c>
+      <c r="C73" s="48">
+        <v>115</v>
       </c>
       <c r="D73" s="35">
-        <f>60/C73</f>
-        <v>1.0526315789473684</v>
+        <f t="shared" si="18"/>
+        <v>0.52173913043478259</v>
       </c>
       <c r="E73" s="49">
         <v>20</v>
       </c>
       <c r="F73" s="47">
         <f>B73/(D73*E73)</f>
-        <v>1.9633333333333336</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G73" s="20">
-        <f>ROUND(F73,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="20">
-        <f>G73*D73*E73</f>
-        <v>42.105263157894733</v>
+        <f t="shared" si="20"/>
+        <v>10.434782608695652</v>
       </c>
       <c r="I73" s="33">
         <f>1-B73/H73</f>
-        <v>1.8333333333333202E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74" s="35">
-        <f>150/3</f>
-        <v>50</v>
+        <f>20/3</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="C74" s="39">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="D74" s="35">
-        <f t="shared" ref="D74:D77" si="10">60/C74</f>
-        <v>2.4</v>
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E74" s="49">
         <v>20</v>
       </c>
       <c r="F74" s="47">
         <f>B74/(D74*E74)</f>
-        <v>1.0416666666666667</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" ref="G74:G77" si="11">ROUND(F74,0)</f>
         <v>1</v>
       </c>
       <c r="H74" s="20">
-        <f t="shared" ref="H74:H77" si="12">G74*D74*E74</f>
-        <v>48</v>
+        <f t="shared" si="20"/>
+        <v>6.6666666666666661</v>
       </c>
       <c r="I74" s="33">
         <f>1-B74/H74</f>
-        <v>-4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="36">
-        <f>30/3</f>
-        <v>10</v>
-      </c>
-      <c r="C75" s="48">
-        <v>115</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="35">
+        <f>120/3</f>
+        <v>40</v>
+      </c>
+      <c r="C75" s="39">
+        <v>30</v>
       </c>
       <c r="D75" s="35">
-        <f t="shared" si="10"/>
-        <v>0.52173913043478259</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="E75" s="49">
         <v>20</v>
       </c>
       <c r="F75" s="47">
         <f>B75/(D75*E75)</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="G75" s="20">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H75" s="20">
-        <f t="shared" si="12"/>
-        <v>10.434782608695652</v>
+        <f t="shared" si="20"/>
+        <v>40</v>
       </c>
       <c r="I75" s="33">
         <f>1-B75/H75</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="35">
-        <f>20/3</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="C76" s="39">
-        <v>180</v>
-      </c>
-      <c r="D76" s="35">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E76" s="49">
-        <v>20</v>
-      </c>
-      <c r="F76" s="47">
-        <f>B76/(D76*E76)</f>
-        <v>1.0000000000000002</v>
-      </c>
       <c r="G76" s="20">
-        <v>1</v>
-      </c>
-      <c r="H76" s="20">
-        <f t="shared" si="12"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="I76" s="33">
-        <f>1-B76/H76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="35">
-        <f>120/3</f>
-        <v>40</v>
-      </c>
-      <c r="C77" s="39">
-        <v>30</v>
-      </c>
-      <c r="D77" s="35">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="E77" s="49">
-        <v>20</v>
-      </c>
-      <c r="F77" s="47">
-        <f>B77/(D77*E77)</f>
-        <v>1</v>
-      </c>
-      <c r="G77" s="20">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H77" s="20">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="I77" s="33">
-        <f>1-B77/H77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="20">
-        <f>SUM(G73:G77)</f>
+        <f>SUM(G71:G75)</f>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4857,118 +4808,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>'Автоматизированный расчет'!A48</f>
+        <f>'Автоматизированный расчет'!A46</f>
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>'Автоматизированный расчет'!A49</f>
+        <f>'Автоматизированный расчет'!A47</f>
         <v>Вход в систему</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>'Автоматизированный расчет'!A50</f>
+        <f>'Автоматизированный расчет'!A48</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>'Автоматизированный расчет'!A51</f>
+        <f>'Автоматизированный расчет'!A49</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>'Автоматизированный расчет'!A52</f>
+        <f>'Автоматизированный расчет'!A50</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>'Автоматизированный расчет'!A53</f>
+        <f>'Автоматизированный расчет'!A51</f>
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>'Автоматизированный расчет'!A54</f>
+        <f>'Автоматизированный расчет'!A52</f>
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>'Автоматизированный расчет'!A55</f>
+        <f>'Автоматизированный расчет'!A53</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>'Автоматизированный расчет'!A56</f>
+        <f>'Автоматизированный расчет'!A54</f>
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>'Автоматизированный расчет'!A57</f>
+        <f>'Автоматизированный расчет'!A55</f>
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>'Автоматизированный расчет'!A58</f>
+        <f>'Автоматизированный расчет'!A56</f>
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>'Автоматизированный расчет'!A59</f>
+        <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4978,624 +4929,881 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="101">
+        <v>0</v>
+      </c>
+      <c r="D1" s="101">
+        <v>0</v>
+      </c>
+      <c r="E1" s="101">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F1" s="101">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G1" s="101">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H1" s="101">
+        <v>169</v>
+      </c>
+      <c r="I1" s="101">
+        <v>0</v>
+      </c>
+      <c r="J1" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
+        <v>0</v>
+      </c>
+      <c r="E2" s="101">
+        <v>0.156</v>
+      </c>
+      <c r="F2" s="101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G2" s="101">
+        <v>0.128</v>
+      </c>
+      <c r="H2" s="101">
+        <v>97</v>
+      </c>
+      <c r="I2" s="101">
+        <v>0</v>
+      </c>
+      <c r="J2" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="101">
+        <v>0</v>
+      </c>
+      <c r="D3" s="101">
+        <v>0</v>
+      </c>
+      <c r="E3" s="101">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F3" s="101">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="101">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H3" s="101">
+        <v>24</v>
+      </c>
+      <c r="I3" s="101">
+        <v>0</v>
+      </c>
+      <c r="J3" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="101">
+        <v>0</v>
+      </c>
+      <c r="D4" s="101">
+        <v>0</v>
+      </c>
+      <c r="E4" s="101">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="101">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H4" s="101">
+        <v>92</v>
+      </c>
+      <c r="I4" s="101">
+        <v>0</v>
+      </c>
+      <c r="J4" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101">
+        <v>0</v>
+      </c>
+      <c r="E5" s="101">
+        <v>0.123</v>
+      </c>
+      <c r="F5" s="101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G5" s="101">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H5" s="101">
+        <v>32</v>
+      </c>
+      <c r="I5" s="101">
+        <v>0</v>
+      </c>
+      <c r="J5" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="101">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F6" s="101">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G6" s="101">
+        <v>0.128</v>
+      </c>
+      <c r="H6" s="101">
+        <v>98</v>
+      </c>
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0</v>
+      </c>
+      <c r="D7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="101">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F7" s="101">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G7" s="101">
+        <v>0.107</v>
+      </c>
+      <c r="H7" s="101">
+        <v>136</v>
+      </c>
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="101">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F8" s="101">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G8" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="101">
+        <v>107</v>
+      </c>
+      <c r="I8" s="101">
+        <v>0</v>
+      </c>
+      <c r="J8" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="101">
+        <v>0</v>
+      </c>
+      <c r="D9" s="101">
+        <v>0</v>
+      </c>
+      <c r="E9" s="101">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F9" s="101">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9" s="101">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H9" s="101">
+        <v>32</v>
+      </c>
+      <c r="I9" s="101">
+        <v>0</v>
+      </c>
+      <c r="J9" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="101">
+        <v>0</v>
+      </c>
+      <c r="D10" s="101">
+        <v>0</v>
+      </c>
+      <c r="E10" s="101">
+        <v>0.105</v>
+      </c>
+      <c r="F10" s="101">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G10" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H10" s="101">
+        <v>169</v>
+      </c>
+      <c r="I10" s="101">
+        <v>0</v>
+      </c>
+      <c r="J10" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="101">
+        <v>0</v>
+      </c>
+      <c r="D11" s="101">
+        <v>0</v>
+      </c>
+      <c r="E11" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F11" s="101">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11" s="101">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11" s="101">
+        <v>58</v>
+      </c>
+      <c r="I11" s="101">
+        <v>0</v>
+      </c>
+      <c r="J11" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="101">
+        <v>0</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0</v>
+      </c>
+      <c r="E12" s="101">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F12" s="101">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="101">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H12" s="101">
+        <v>32</v>
+      </c>
+      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <v>0.106</v>
-      </c>
-      <c r="D2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.51</v>
-      </c>
-      <c r="F2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H2">
-        <v>92</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.54</v>
-      </c>
-      <c r="E3">
-        <v>14.148</v>
-      </c>
-      <c r="F3">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="H3">
-        <v>106</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E4">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H4">
+      <c r="B13" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="101">
+        <v>0</v>
+      </c>
+      <c r="D13" s="101">
+        <v>0</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0.154</v>
+      </c>
+      <c r="F13" s="101">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G13" s="101">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H13" s="101">
+        <v>98</v>
+      </c>
+      <c r="I13" s="101">
+        <v>0</v>
+      </c>
+      <c r="J13" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.27</v>
-      </c>
-      <c r="E5">
-        <v>2.63</v>
-      </c>
-      <c r="F5">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="H5">
-        <v>105</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B14" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="101">
+        <v>0</v>
+      </c>
+      <c r="D14" s="101">
+        <v>0</v>
+      </c>
+      <c r="E14" s="101">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F14" s="101">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="101">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H14" s="101">
+        <v>14</v>
+      </c>
+      <c r="I14" s="101">
+        <v>0</v>
+      </c>
+      <c r="J14" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F6">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="H6">
+      <c r="B15" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="101">
+        <v>0</v>
+      </c>
+      <c r="D15" s="101">
+        <v>0</v>
+      </c>
+      <c r="E15" s="101">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F15" s="101">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G15" s="101">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H15" s="101">
+        <v>6</v>
+      </c>
+      <c r="I15" s="101">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="101">
+        <v>0</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F16" s="101">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G16" s="101">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H16" s="101">
+        <v>59</v>
+      </c>
+      <c r="I16" s="101">
+        <v>0</v>
+      </c>
+      <c r="J16" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="101">
+        <v>0</v>
+      </c>
+      <c r="D17" s="101">
+        <v>0</v>
+      </c>
+      <c r="E17" s="101">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F17" s="101">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G17" s="101">
+        <v>0.36</v>
+      </c>
+      <c r="H17" s="101">
+        <v>24</v>
+      </c>
+      <c r="I17" s="101">
+        <v>0</v>
+      </c>
+      <c r="J17" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="101">
+        <v>0</v>
+      </c>
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G18" s="101">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H18" s="101">
+        <v>32</v>
+      </c>
+      <c r="I18" s="101">
+        <v>0</v>
+      </c>
+      <c r="J18" s="101">
+        <v>0</v>
+      </c>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="101">
+        <v>0</v>
+      </c>
+      <c r="D19" s="101">
+        <v>0</v>
+      </c>
+      <c r="E19" s="101">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F19" s="101">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G19" s="101">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H19" s="101">
         <v>34</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F7">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.186</v>
-      </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>0.115</v>
-      </c>
-      <c r="D8">
-        <v>0.161</v>
-      </c>
-      <c r="E8">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="F8">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.223</v>
-      </c>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9">
-        <v>0.114</v>
-      </c>
-      <c r="D9">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E9">
-        <v>2.64</v>
-      </c>
-      <c r="F9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H9">
-        <v>57</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>0.104</v>
-      </c>
-      <c r="D10">
-        <v>0.189</v>
-      </c>
-      <c r="E10">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.184</v>
-      </c>
-      <c r="H10">
-        <v>92</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11">
-        <v>0.224</v>
-      </c>
-      <c r="D11">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E11">
-        <v>8.968</v>
-      </c>
-      <c r="F11">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H11">
-        <v>144</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E12">
-        <v>11.465</v>
-      </c>
-      <c r="F12">
-        <v>1.899</v>
-      </c>
-      <c r="G12">
-        <v>0.504</v>
-      </c>
-      <c r="H12">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13">
-        <v>0.152</v>
-      </c>
-      <c r="D13">
-        <v>0.255</v>
-      </c>
-      <c r="E13">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H13">
-        <v>178</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="D14">
-        <v>1.446</v>
-      </c>
-      <c r="E14">
-        <v>13.048999999999999</v>
-      </c>
-      <c r="F14">
-        <v>2.1110000000000002</v>
-      </c>
-      <c r="G14">
-        <v>1.623</v>
-      </c>
-      <c r="H14">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15">
-        <v>1.44</v>
-      </c>
-      <c r="D15">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="E15">
-        <v>19.016999999999999</v>
-      </c>
-      <c r="F15">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="G15">
-        <v>4.1509999999999998</v>
-      </c>
-      <c r="H15">
-        <v>45</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D16">
-        <v>1.014</v>
-      </c>
-      <c r="E16">
-        <v>2.077</v>
-      </c>
-      <c r="F16">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.637</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1.61</v>
-      </c>
-      <c r="E17">
-        <v>6.6539999999999999</v>
-      </c>
-      <c r="F17">
-        <v>1.294</v>
-      </c>
-      <c r="G17">
-        <v>1.9570000000000001</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18">
-        <v>1.109</v>
-      </c>
-      <c r="D18">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="E18">
-        <v>14.016999999999999</v>
-      </c>
-      <c r="F18">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="G18">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="H18">
-        <v>35</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19">
-        <v>1.56</v>
-      </c>
-      <c r="D19">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="E19">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="F19">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="G19">
-        <v>3.153</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
+      <c r="I19" s="101">
+        <v>0</v>
+      </c>
+      <c r="J19" s="101">
+        <v>0</v>
+      </c>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+    </row>
+    <row r="33" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+    </row>
+    <row r="34" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+    </row>
+    <row r="35" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+    </row>
+    <row r="36" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+    </row>
+    <row r="37" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5606,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -5629,29 +5837,29 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="E9" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5659,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4">
         <v>368</v>
@@ -5678,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4">
         <v>251</v>
@@ -5697,7 +5905,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4">
         <v>251</v>
@@ -5716,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4">
         <v>175</v>
@@ -5732,10 +5940,10 @@
     </row>
     <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G16" s="4">
         <v>159</v>
@@ -5754,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4">
         <v>73</v>
@@ -5773,7 +5981,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4">
         <v>326</v>
@@ -5788,29 +5996,29 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="E23" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5818,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" s="10">
         <f>5*368</f>
@@ -5838,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" s="10">
         <f>5*251</f>
@@ -5858,7 +6066,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10">
         <f>5*251</f>
@@ -5878,7 +6086,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10">
         <f>5*175</f>
@@ -5895,10 +6103,10 @@
     </row>
     <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="G30" s="10">
         <f>5*159</f>
@@ -5918,7 +6126,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="10">
         <f>5*73</f>
@@ -5938,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" s="10">
         <f>5*326</f>
@@ -5954,41 +6162,41 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="E35" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="L37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="O37" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5996,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G38" s="10">
         <f>5*368</f>
@@ -6010,7 +6218,7 @@
         <v>0.12754860123281175</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M38" s="14">
         <v>377</v>
@@ -6027,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" s="10">
         <f>5*251</f>
@@ -6041,7 +6249,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M39" s="14">
         <v>998</v>
@@ -6058,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="10">
         <f>5*251</f>
@@ -6072,10 +6280,10 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N40" s="14">
         <v>0</v>
@@ -6089,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41" s="10">
         <f>5*175</f>
@@ -6103,10 +6311,10 @@
         <v>5.3030303030302983E-2</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N41" s="14">
         <v>139</v>
@@ -6117,10 +6325,10 @@
     </row>
     <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="G42" s="10">
         <f>5*159</f>
@@ -6134,10 +6342,10 @@
         <v>0.20340681362725455</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N42" s="14">
         <v>1</v>
@@ -6151,7 +6359,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G43" s="10">
         <f>5*73</f>
@@ -6165,7 +6373,7 @@
         <v>9.6534653465346509E-2</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M43" s="14">
         <v>924</v>
@@ -6182,7 +6390,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" s="10">
         <f>5*326</f>
@@ -6196,10 +6404,10 @@
         <v>2.68656716417911E-2</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N44" s="14">
         <v>0</v>

--- a/Документация/WebTours Профиль нагрузки WebTors.xlsx
+++ b/Документация/WebTours Профиль нагрузки WebTors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Load Testing XSET\Load-Testing-XSET\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1C612-E5B3-4C8B-B6A1-A43467D3C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F8F763-31A6-4192-9339-6D1E0E5A6979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="6210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>% Распределения пользователей</t>
   </si>
   <si>
-    <t>Всего пользователей на ступени</t>
-  </si>
-  <si>
     <t>Сумма по полю Итого</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>UC_05_CancelingFlight</t>
+  </si>
+  <si>
+    <t>Количество выполнений в час</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1753,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1902,6 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1911,7 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2756,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,13 +2794,13 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -2808,7 +2809,7 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
@@ -2820,7 +2821,7 @@
         <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
         <v>43</v>
@@ -2841,15 +2842,15 @@
         <v>47</v>
       </c>
       <c r="X1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="67">
         <v>1</v>
@@ -2881,7 +2882,7 @@
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N2" s="23">
         <v>1.7749999999999999</v>
@@ -2918,10 +2919,14 @@
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
+      <c r="X2" s="102">
+        <f xml:space="preserve"> 3600 / Q2</f>
+        <v>58.064516129032256</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>0</v>
@@ -2956,7 +2961,7 @@
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" s="23">
         <v>1.62</v>
@@ -2989,10 +2994,14 @@
         <f>R3/W$2</f>
         <v>0.1</v>
       </c>
+      <c r="X3" s="102">
+        <f t="shared" ref="X3:X7" si="7" xml:space="preserve"> 3600 / Q3</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>4</v>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N4" s="23">
         <v>2.9750000000000001</v>
@@ -3057,13 +3066,17 @@
         <v>32</v>
       </c>
       <c r="V4" s="38">
-        <f t="shared" ref="V4:V5" si="7">R4/W$2</f>
+        <f t="shared" ref="V4:V5" si="8">R4/W$2</f>
         <v>0.1</v>
+      </c>
+      <c r="X4" s="102">
+        <f t="shared" si="7"/>
+        <v>97.297297297297291</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="93" t="s">
         <v>6</v>
@@ -3098,7 +3111,7 @@
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="23">
         <v>1.2390000000000001</v>
@@ -3128,22 +3141,26 @@
         <v>34</v>
       </c>
       <c r="V5" s="38">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="102">
         <f t="shared" si="7"/>
-        <v>0.2</v>
+        <v>50.70422535211268</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="66">
         <v>1</v>
       </c>
       <c r="D6" s="53">
-        <f t="shared" ref="D6:D34" si="8">VLOOKUP(A6,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" ref="D6:D34" si="9">VLOOKUP(A6,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E6" s="70">
@@ -3151,7 +3168,7 @@
         <v>190</v>
       </c>
       <c r="F6" s="76">
-        <f t="shared" ref="F6:F34" si="9">60/E6*C6</f>
+        <f t="shared" ref="F6:F34" si="10">60/E6*C6</f>
         <v>0.31578947368421051</v>
       </c>
       <c r="G6" s="73">
@@ -3169,7 +3186,7 @@
       </c>
       <c r="K6" s="15"/>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="23">
         <v>1.107</v>
@@ -3202,10 +3219,14 @@
         <f>R6/W$2</f>
         <v>0.1</v>
       </c>
+      <c r="X6" s="102">
+        <f t="shared" si="7"/>
+        <v>18.94736842105263</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>0</v>
@@ -3214,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E7" s="71">
@@ -3222,7 +3243,7 @@
         <v>190</v>
       </c>
       <c r="F7" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="G7" s="61">
@@ -3240,7 +3261,7 @@
       </c>
       <c r="K7" s="15"/>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" s="23">
         <v>0.70899999999999996</v>
@@ -3273,34 +3294,38 @@
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
+      <c r="X7" s="102">
+        <f t="shared" si="7"/>
+        <v>21.176470588235293</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E8" s="71">
-        <f t="shared" ref="E8:E9" si="10">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E8:E9" si="11">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
         <v>190</v>
       </c>
       <c r="F8" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="G8" s="61">
         <v>20</v>
       </c>
       <c r="H8" s="78">
-        <f t="shared" ref="H8:H9" si="11">D8*F8*G8</f>
+        <f t="shared" ref="H8:H9" si="12">D8*F8*G8</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -3315,13 +3340,17 @@
         <v>154</v>
       </c>
       <c r="V8" s="38">
-        <f>SUM(V2:V6)</f>
-        <v>0.79999999999999993</v>
+        <f>SUM(V2:V7)</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="102">
+        <f>SUM(X2:X7)</f>
+        <v>318.18987778773015</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="86" t="s">
         <v>8</v>
@@ -3330,26 +3359,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E9" s="71">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="F9" s="75">
         <f t="shared" si="10"/>
-        <v>190</v>
-      </c>
-      <c r="F9" s="75">
-        <f t="shared" si="9"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="G9" s="61">
         <v>20</v>
       </c>
       <c r="H9" s="78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="15">
         <v>168.73320199538091</v>
@@ -3358,7 +3387,7 @@
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="87" t="s">
         <v>6</v>
@@ -3367,26 +3396,26 @@
         <v>0</v>
       </c>
       <c r="D10" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E10" s="72">
-        <f t="shared" ref="E10:E34" si="12">VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E10:E34" si="13">VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
         <v>190</v>
       </c>
       <c r="F10" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G10" s="74">
         <v>20</v>
       </c>
       <c r="H10" s="80">
-        <f t="shared" ref="H10:H34" si="13">D10*F10*G10</f>
+        <f t="shared" ref="H10:H34" si="14">D10*F10*G10</f>
         <v>0</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15">
         <v>32.432432432432435</v>
@@ -3394,35 +3423,35 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
       </c>
       <c r="D11" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E11" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F11" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G11" s="73">
         <v>20</v>
       </c>
       <c r="H11" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="15">
         <v>32.432432432432435</v>
@@ -3430,7 +3459,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>0</v>
@@ -3439,26 +3468,26 @@
         <v>1</v>
       </c>
       <c r="D12" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E12" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F12" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G12" s="61">
         <v>20</v>
       </c>
       <c r="H12" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="15">
         <v>32.432432432432435</v>
@@ -3466,35 +3495,35 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="60">
         <v>1</v>
       </c>
       <c r="D13" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E13" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F13" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G13" s="61">
         <v>20</v>
       </c>
       <c r="H13" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="15">
         <v>98.183122504124924</v>
@@ -3502,7 +3531,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="86" t="s">
         <v>8</v>
@@ -3511,22 +3540,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E14" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F14" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G14" s="61">
         <v>20</v>
       </c>
       <c r="H14" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -3538,7 +3567,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="86" t="s">
         <v>9</v>
@@ -3547,28 +3576,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E15" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F15" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G15" s="61">
         <v>20</v>
       </c>
       <c r="H15" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>6</v>
@@ -3577,88 +3606,88 @@
         <v>1</v>
       </c>
       <c r="D16" s="64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E16" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="F16" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="G16" s="74">
         <v>20</v>
       </c>
       <c r="H16" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>33.802816901408448</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="66">
         <v>1</v>
       </c>
       <c r="D17" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E17" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F17" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G17" s="73">
         <v>20</v>
       </c>
       <c r="H17" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E18" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F18" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G18" s="61">
         <v>20</v>
       </c>
       <c r="H18" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="86" t="s">
         <v>0</v>
@@ -3667,28 +3696,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E19" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G19" s="61">
         <v>20</v>
       </c>
       <c r="H19" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>8</v>
@@ -3697,28 +3726,28 @@
         <v>1</v>
       </c>
       <c r="D20" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E20" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F20" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G20" s="61">
         <v>20</v>
       </c>
       <c r="H20" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="86" t="s">
         <v>9</v>
@@ -3727,28 +3756,28 @@
         <v>1</v>
       </c>
       <c r="D21" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E21" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F21" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G21" s="61">
         <v>20</v>
       </c>
       <c r="H21" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="86" t="s">
         <v>3</v>
@@ -3757,28 +3786,28 @@
         <v>1</v>
       </c>
       <c r="D22" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E22" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F22" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G22" s="61">
         <v>20</v>
       </c>
       <c r="H22" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>4</v>
@@ -3787,28 +3816,28 @@
         <v>1</v>
       </c>
       <c r="D23" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E23" s="71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F23" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G23" s="61">
         <v>20</v>
       </c>
       <c r="H23" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="87" t="s">
         <v>6</v>
@@ -3817,58 +3846,58 @@
         <v>1</v>
       </c>
       <c r="D24" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E24" s="72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F24" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.967741935483871</v>
       </c>
       <c r="G24" s="74">
         <v>20</v>
       </c>
       <c r="H24" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58.064516129032256</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="65">
         <v>1</v>
       </c>
       <c r="D25" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E25" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F25" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="G25" s="61">
         <v>20</v>
       </c>
       <c r="H25" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="86" t="s">
         <v>0</v>
@@ -3877,28 +3906,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E26" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F26" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="G26" s="61">
         <v>20</v>
       </c>
       <c r="H26" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>4</v>
@@ -3907,28 +3936,28 @@
         <v>1</v>
       </c>
       <c r="D27" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E27" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F27" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="G27" s="61">
         <v>20</v>
       </c>
       <c r="H27" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="86" t="s">
         <v>10</v>
@@ -3937,28 +3966,28 @@
         <v>1</v>
       </c>
       <c r="D28" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E28" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F28" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
       <c r="G28" s="61">
         <v>20</v>
       </c>
       <c r="H28" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="87" t="s">
         <v>6</v>
@@ -3967,148 +3996,148 @@
         <v>0</v>
       </c>
       <c r="D29" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E29" s="83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F29" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G29" s="74">
         <v>20</v>
       </c>
       <c r="H29" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="65">
         <v>1</v>
       </c>
       <c r="D30" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E30" s="81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F30" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G30" s="73">
         <v>20</v>
       </c>
       <c r="H30" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="29">
         <v>1</v>
       </c>
       <c r="D31" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E31" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F31" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G31" s="61">
         <v>20</v>
       </c>
       <c r="H31" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="29">
         <v>1</v>
       </c>
       <c r="D32" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E32" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F32" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G32" s="61">
         <v>20</v>
       </c>
       <c r="H32" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="29">
         <v>1</v>
       </c>
       <c r="D33" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E33" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F33" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="G33" s="61">
         <v>20</v>
       </c>
       <c r="H33" s="78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.432432432432435</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="86" t="s">
         <v>6</v>
@@ -4117,71 +4146,71 @@
         <v>0</v>
       </c>
       <c r="D34" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E34" s="83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F34" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G34" s="74">
         <v>20</v>
       </c>
       <c r="H34" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="99"/>
+      <c r="A44" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="100"/>
     </row>
     <row r="45" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="28" t="s">
+      <c r="H45" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="43">
         <v>520</v>
       </c>
       <c r="C46" s="27">
-        <f t="shared" ref="C46:C57" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A46)*3</f>
+        <f t="shared" ref="C46:C57" si="15">GETPIVOTDATA("Итого",$I$1,"transaction rq",A46)*3</f>
         <v>506.19960598614273</v>
       </c>
       <c r="D46" s="57">
-        <f t="shared" ref="D46:D58" si="15">1-B46/C46</f>
+        <f t="shared" ref="D46:D58" si="16">1-B46/C46</f>
         <v>-2.7262751394229845E-2</v>
       </c>
       <c r="E46" s="55" t="str">
@@ -4189,7 +4218,7 @@
         <v>openHomePage</v>
       </c>
       <c r="F46" s="59">
-        <f t="shared" ref="F46:F57" si="16">C46/3</f>
+        <f t="shared" ref="F46:F57" si="17">C46/3</f>
         <v>168.73320199538091</v>
       </c>
       <c r="G46" s="50">
@@ -4209,11 +4238,11 @@
         <v>422</v>
       </c>
       <c r="C47" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>408.90230868884538</v>
       </c>
       <c r="D47" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2031345954373958E-2</v>
       </c>
       <c r="E47" s="55" t="str">
@@ -4221,7 +4250,7 @@
         <v>login</v>
       </c>
       <c r="F47" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>136.30076956294846</v>
       </c>
       <c r="G47" s="50">
@@ -4235,17 +4264,17 @@
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="43">
         <v>305</v>
       </c>
       <c r="C48" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>294.54936751237477</v>
       </c>
       <c r="D48" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5480071051879447E-2</v>
       </c>
       <c r="E48" s="55" t="str">
@@ -4253,7 +4282,7 @@
         <v>flightsBottonClick</v>
       </c>
       <c r="F48" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>98.183122504124924</v>
       </c>
       <c r="G48" s="50">
@@ -4273,11 +4302,11 @@
         <v>282</v>
       </c>
       <c r="C49" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>294.54936751237477</v>
       </c>
       <c r="D49" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.2605311355311426E-2</v>
       </c>
       <c r="E49" s="55" t="str">
@@ -4285,7 +4314,7 @@
         <v>startFindingFlights</v>
       </c>
       <c r="F49" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>98.183122504124924</v>
       </c>
       <c r="G49" s="50">
@@ -4293,7 +4322,7 @@
         <v>98</v>
       </c>
       <c r="H49" s="25">
-        <f t="shared" ref="H49:H57" si="17">1-F49/G49</f>
+        <f t="shared" ref="H49:H57" si="18">1-F49/G49</f>
         <v>-1.8685969808664993E-3</v>
       </c>
     </row>
@@ -4305,11 +4334,11 @@
         <v>270</v>
       </c>
       <c r="C50" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>275.60199909132211</v>
       </c>
       <c r="D50" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0326409495548869E-2</v>
       </c>
       <c r="E50" s="55" t="str">
@@ -4317,7 +4346,7 @@
         <v>choseFlightTime</v>
       </c>
       <c r="F50" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>91.867333030440705</v>
       </c>
       <c r="G50" s="50">
@@ -4325,7 +4354,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4420322778184724E-3</v>
       </c>
     </row>
@@ -4337,11 +4366,11 @@
         <v>175</v>
       </c>
       <c r="C51" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>174.19354838709677</v>
       </c>
       <c r="D51" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4.6296296296297612E-3</v>
       </c>
       <c r="E51" s="55" t="str">
@@ -4349,7 +4378,7 @@
         <v>paymentDetails</v>
       </c>
       <c r="F51" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>58.064516129032256</v>
       </c>
       <c r="G51" s="50">
@@ -4357,7 +4386,7 @@
         <v>58</v>
       </c>
       <c r="H51" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.1123470522802492E-3</v>
       </c>
     </row>
@@ -4369,11 +4398,11 @@
         <v>280</v>
       </c>
       <c r="C52" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288.54648956356738</v>
       </c>
       <c r="D52" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9619107744107809E-2</v>
       </c>
       <c r="E52" s="55" t="str">
@@ -4381,7 +4410,7 @@
         <v>browsingItenerary</v>
       </c>
       <c r="F52" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>96.182163187855792</v>
       </c>
       <c r="G52" s="50">
@@ -4389,7 +4418,7 @@
         <v>97</v>
       </c>
       <c r="H52" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.4313073416928397E-3</v>
       </c>
     </row>
@@ -4401,11 +4430,11 @@
         <v>73</v>
       </c>
       <c r="C53" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="D53" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.388888888888884E-2</v>
       </c>
       <c r="E53" s="55" t="str">
@@ -4413,7 +4442,7 @@
         <v>CancelingFlight</v>
       </c>
       <c r="F53" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="G53" s="50">
@@ -4421,7 +4450,7 @@
         <v>24</v>
       </c>
       <c r="H53" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4433,11 +4462,11 @@
         <v>326</v>
       </c>
       <c r="C54" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>317.95494026779272</v>
       </c>
       <c r="D54" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.5302515272860537E-2</v>
       </c>
       <c r="E54" s="55" t="str">
@@ -4445,7 +4474,7 @@
         <v>logout</v>
       </c>
       <c r="F54" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>105.98498008926424</v>
       </c>
       <c r="G54" s="50">
@@ -4453,23 +4482,23 @@
         <v>107</v>
       </c>
       <c r="H54" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.4861673900538124E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="43">
         <v>97</v>
       </c>
       <c r="C55" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97.297297297297305</v>
       </c>
       <c r="D55" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E55" s="55" t="str">
@@ -4477,7 +4506,7 @@
         <v>signUpNowButtonClick</v>
       </c>
       <c r="F55" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
       <c r="G55" s="50">
@@ -4485,23 +4514,23 @@
         <v>32</v>
       </c>
       <c r="H55" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="43">
         <v>97</v>
       </c>
       <c r="C56" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97.297297297297305</v>
       </c>
       <c r="D56" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E56" s="55" t="str">
@@ -4509,7 +4538,7 @@
         <v>newUserRegistration</v>
       </c>
       <c r="F56" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
       <c r="G56" s="50">
@@ -4517,23 +4546,23 @@
         <v>32</v>
       </c>
       <c r="H56" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="43">
         <v>97</v>
       </c>
       <c r="C57" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>97.297297297297305</v>
       </c>
       <c r="D57" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E57" s="55" t="str">
@@ -4541,7 +4570,7 @@
         <v>continueButtonClick</v>
       </c>
       <c r="F57" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.432432432432435</v>
       </c>
       <c r="G57" s="50">
@@ -4549,7 +4578,7 @@
         <v>32</v>
       </c>
       <c r="H57" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.3513513513513598E-2</v>
       </c>
     </row>
@@ -4566,13 +4595,13 @@
         <v>2924.3895189014092</v>
       </c>
       <c r="D58" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-6.7058375677524484E-3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C69" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
@@ -4582,30 +4611,30 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
         <v>69</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>71</v>
       </c>
-      <c r="F70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="35">
         <f>124/3</f>
@@ -4640,7 +4669,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="35">
         <f>150/3</f>
@@ -4650,7 +4679,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="35">
-        <f t="shared" ref="D72:D75" si="18">60/C72</f>
+        <f t="shared" ref="D72:D75" si="19">60/C72</f>
         <v>2.4</v>
       </c>
       <c r="E72" s="49">
@@ -4661,11 +4690,11 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" ref="G72:G75" si="19">ROUND(F72,0)</f>
+        <f t="shared" ref="G72:G75" si="20">ROUND(F72,0)</f>
         <v>1</v>
       </c>
       <c r="H72" s="20">
-        <f t="shared" ref="H72:H75" si="20">G72*D72*E72</f>
+        <f t="shared" ref="H72:H75" si="21">G72*D72*E72</f>
         <v>48</v>
       </c>
       <c r="I72" s="33">
@@ -4675,7 +4704,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="36">
         <f>30/3</f>
@@ -4685,7 +4714,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="E73" s="49">
@@ -4699,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.434782608695652</v>
       </c>
       <c r="I73" s="33">
@@ -4709,7 +4738,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="35">
         <f>20/3</f>
@@ -4719,7 +4748,7 @@
         <v>180</v>
       </c>
       <c r="D74" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E74" s="49">
@@ -4733,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="I74" s="33">
@@ -4743,7 +4772,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="35">
         <f>120/3</f>
@@ -4753,7 +4782,7 @@
         <v>30</v>
       </c>
       <c r="D75" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="E75" s="49">
@@ -4764,11 +4793,11 @@
         <v>1</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H75" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="I75" s="33">
@@ -4808,10 +4837,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4849,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4867,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4847,7 +4876,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4885,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,7 +4894,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4903,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4883,7 +4912,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4930,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4939,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,7 +4948,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4942,578 +4971,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="98">
+        <v>0</v>
+      </c>
+      <c r="D1" s="98">
+        <v>0</v>
+      </c>
+      <c r="E1" s="98">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F1" s="98">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G1" s="98">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H1" s="98">
+        <v>169</v>
+      </c>
+      <c r="I1" s="98">
+        <v>0</v>
+      </c>
+      <c r="J1" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="98">
+        <v>0</v>
+      </c>
+      <c r="D2" s="98">
+        <v>0</v>
+      </c>
+      <c r="E2" s="98">
+        <v>0.156</v>
+      </c>
+      <c r="F2" s="98">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G2" s="98">
+        <v>0.128</v>
+      </c>
+      <c r="H2" s="98">
+        <v>97</v>
+      </c>
+      <c r="I2" s="98">
+        <v>0</v>
+      </c>
+      <c r="J2" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="98">
+        <v>0</v>
+      </c>
+      <c r="D3" s="98">
+        <v>0</v>
+      </c>
+      <c r="E3" s="98">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F3" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="98">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H3" s="98">
+        <v>24</v>
+      </c>
+      <c r="I3" s="98">
+        <v>0</v>
+      </c>
+      <c r="J3" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="98">
+        <v>0</v>
+      </c>
+      <c r="D4" s="98">
+        <v>0</v>
+      </c>
+      <c r="E4" s="98">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F4" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="98">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H4" s="98">
+        <v>92</v>
+      </c>
+      <c r="I4" s="98">
+        <v>0</v>
+      </c>
+      <c r="J4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="98">
+        <v>0</v>
+      </c>
+      <c r="D5" s="98">
+        <v>0</v>
+      </c>
+      <c r="E5" s="98">
+        <v>0.123</v>
+      </c>
+      <c r="F5" s="98">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H5" s="98">
+        <v>32</v>
+      </c>
+      <c r="I5" s="98">
+        <v>0</v>
+      </c>
+      <c r="J5" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="98">
+        <v>0</v>
+      </c>
+      <c r="D6" s="98">
+        <v>0</v>
+      </c>
+      <c r="E6" s="98">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F6" s="98">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0.128</v>
+      </c>
+      <c r="H6" s="98">
+        <v>98</v>
+      </c>
+      <c r="I6" s="98">
+        <v>0</v>
+      </c>
+      <c r="J6" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="98">
+        <v>0</v>
+      </c>
+      <c r="D7" s="98">
+        <v>0</v>
+      </c>
+      <c r="E7" s="98">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F7" s="98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G7" s="98">
+        <v>0.107</v>
+      </c>
+      <c r="H7" s="98">
+        <v>136</v>
+      </c>
+      <c r="I7" s="98">
+        <v>0</v>
+      </c>
+      <c r="J7" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="98">
+        <v>0</v>
+      </c>
+      <c r="D8" s="98">
+        <v>0</v>
+      </c>
+      <c r="E8" s="98">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F8" s="98">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G8" s="98">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="98">
+        <v>107</v>
+      </c>
+      <c r="I8" s="98">
+        <v>0</v>
+      </c>
+      <c r="J8" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="98">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98">
+        <v>0</v>
+      </c>
+      <c r="E9" s="98">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F9" s="98">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9" s="98">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H9" s="98">
+        <v>32</v>
+      </c>
+      <c r="I9" s="98">
+        <v>0</v>
+      </c>
+      <c r="J9" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="98">
+        <v>0</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0.105</v>
+      </c>
+      <c r="F10" s="98">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G10" s="98">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H10" s="98">
+        <v>169</v>
+      </c>
+      <c r="I10" s="98">
+        <v>0</v>
+      </c>
+      <c r="J10" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="98">
+        <v>0</v>
+      </c>
+      <c r="D11" s="98">
+        <v>0</v>
+      </c>
+      <c r="E11" s="98">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F11" s="98">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11" s="98">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11" s="98">
+        <v>58</v>
+      </c>
+      <c r="I11" s="98">
+        <v>0</v>
+      </c>
+      <c r="J11" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="98">
+        <v>0</v>
+      </c>
+      <c r="D12" s="98">
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F12" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="98">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H12" s="98">
+        <v>32</v>
+      </c>
+      <c r="I12" s="98">
+        <v>0</v>
+      </c>
+      <c r="J12" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="98">
+        <v>0</v>
+      </c>
+      <c r="D13" s="98">
+        <v>0</v>
+      </c>
+      <c r="E13" s="98">
+        <v>0.154</v>
+      </c>
+      <c r="F13" s="98">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G13" s="98">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H13" s="98">
+        <v>98</v>
+      </c>
+      <c r="I13" s="98">
+        <v>0</v>
+      </c>
+      <c r="J13" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="101">
-        <v>0</v>
-      </c>
-      <c r="D1" s="101">
-        <v>0</v>
-      </c>
-      <c r="E1" s="101">
+      <c r="B14" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="98">
+        <v>0</v>
+      </c>
+      <c r="D14" s="98">
+        <v>0</v>
+      </c>
+      <c r="E14" s="98">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F14" s="98">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="98">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H14" s="98">
+        <v>14</v>
+      </c>
+      <c r="I14" s="98">
+        <v>0</v>
+      </c>
+      <c r="J14" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="98">
+        <v>0</v>
+      </c>
+      <c r="D15" s="98">
+        <v>0</v>
+      </c>
+      <c r="E15" s="98">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F15" s="98">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G15" s="98">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H15" s="98">
+        <v>6</v>
+      </c>
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="98">
+        <v>0</v>
+      </c>
+      <c r="D16" s="98">
+        <v>0</v>
+      </c>
+      <c r="E16" s="98">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F1" s="101">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G1" s="101">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="H1" s="101">
-        <v>169</v>
-      </c>
-      <c r="I1" s="101">
-        <v>0</v>
-      </c>
-      <c r="J1" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="101">
-        <v>0</v>
-      </c>
-      <c r="D2" s="101">
-        <v>0</v>
-      </c>
-      <c r="E2" s="101">
-        <v>0.156</v>
-      </c>
-      <c r="F2" s="101">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G2" s="101">
-        <v>0.128</v>
-      </c>
-      <c r="H2" s="101">
+      <c r="F16" s="98">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G16" s="98">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H16" s="98">
+        <v>59</v>
+      </c>
+      <c r="I16" s="98">
+        <v>0</v>
+      </c>
+      <c r="J16" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="101">
-        <v>0</v>
-      </c>
-      <c r="J2" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="101">
-        <v>0</v>
-      </c>
-      <c r="D3" s="101">
-        <v>0</v>
-      </c>
-      <c r="E3" s="101">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F3" s="101">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="101">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H3" s="101">
+      <c r="B17" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="98">
+        <v>0</v>
+      </c>
+      <c r="D17" s="98">
+        <v>0</v>
+      </c>
+      <c r="E17" s="98">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F17" s="98">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G17" s="98">
+        <v>0.36</v>
+      </c>
+      <c r="H17" s="98">
         <v>24</v>
       </c>
-      <c r="I3" s="101">
-        <v>0</v>
-      </c>
-      <c r="J3" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="101">
-        <v>0</v>
-      </c>
-      <c r="D4" s="101">
-        <v>0</v>
-      </c>
-      <c r="E4" s="101">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F4" s="101">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="101">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H4" s="101">
-        <v>92</v>
-      </c>
-      <c r="I4" s="101">
-        <v>0</v>
-      </c>
-      <c r="J4" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="101">
-        <v>0</v>
-      </c>
-      <c r="D5" s="101">
-        <v>0</v>
-      </c>
-      <c r="E5" s="101">
-        <v>0.123</v>
-      </c>
-      <c r="F5" s="101">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G5" s="101">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H5" s="101">
+      <c r="I17" s="98">
+        <v>0</v>
+      </c>
+      <c r="J17" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="98">
+        <v>0</v>
+      </c>
+      <c r="D18" s="98">
+        <v>0</v>
+      </c>
+      <c r="E18" s="98">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="98">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G18" s="98">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H18" s="98">
         <v>32</v>
       </c>
-      <c r="I5" s="101">
-        <v>0</v>
-      </c>
-      <c r="J5" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="101">
-        <v>0</v>
-      </c>
-      <c r="D6" s="101">
-        <v>0</v>
-      </c>
-      <c r="E6" s="101">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F6" s="101">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G6" s="101">
-        <v>0.128</v>
-      </c>
-      <c r="H6" s="101">
-        <v>98</v>
-      </c>
-      <c r="I6" s="101">
-        <v>0</v>
-      </c>
-      <c r="J6" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="101">
-        <v>0</v>
-      </c>
-      <c r="D7" s="101">
-        <v>0</v>
-      </c>
-      <c r="E7" s="101">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F7" s="101">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G7" s="101">
-        <v>0.107</v>
-      </c>
-      <c r="H7" s="101">
-        <v>136</v>
-      </c>
-      <c r="I7" s="101">
-        <v>0</v>
-      </c>
-      <c r="J7" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="101">
-        <v>0</v>
-      </c>
-      <c r="D8" s="101">
-        <v>0</v>
-      </c>
-      <c r="E8" s="101">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F8" s="101">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G8" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="101">
-        <v>107</v>
-      </c>
-      <c r="I8" s="101">
-        <v>0</v>
-      </c>
-      <c r="J8" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="101">
-        <v>0</v>
-      </c>
-      <c r="D9" s="101">
-        <v>0</v>
-      </c>
-      <c r="E9" s="101">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F9" s="101">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G9" s="101">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H9" s="101">
-        <v>32</v>
-      </c>
-      <c r="I9" s="101">
-        <v>0</v>
-      </c>
-      <c r="J9" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="101">
-        <v>0</v>
-      </c>
-      <c r="D10" s="101">
-        <v>0</v>
-      </c>
-      <c r="E10" s="101">
-        <v>0.105</v>
-      </c>
-      <c r="F10" s="101">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G10" s="101">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H10" s="101">
-        <v>169</v>
-      </c>
-      <c r="I10" s="101">
-        <v>0</v>
-      </c>
-      <c r="J10" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="101">
-        <v>0</v>
-      </c>
-      <c r="D11" s="101">
-        <v>0</v>
-      </c>
-      <c r="E11" s="101">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F11" s="101">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G11" s="101">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H11" s="101">
-        <v>58</v>
-      </c>
-      <c r="I11" s="101">
-        <v>0</v>
-      </c>
-      <c r="J11" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="101">
-        <v>0</v>
-      </c>
-      <c r="D12" s="101">
-        <v>0</v>
-      </c>
-      <c r="E12" s="101">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F12" s="101">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="101">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H12" s="101">
-        <v>32</v>
-      </c>
-      <c r="I12" s="101">
-        <v>0</v>
-      </c>
-      <c r="J12" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="101">
-        <v>0</v>
-      </c>
-      <c r="D13" s="101">
-        <v>0</v>
-      </c>
-      <c r="E13" s="101">
-        <v>0.154</v>
-      </c>
-      <c r="F13" s="101">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G13" s="101">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H13" s="101">
-        <v>98</v>
-      </c>
-      <c r="I13" s="101">
-        <v>0</v>
-      </c>
-      <c r="J13" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="101">
-        <v>0</v>
-      </c>
-      <c r="D14" s="101">
-        <v>0</v>
-      </c>
-      <c r="E14" s="101">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F14" s="101">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G14" s="101">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="H14" s="101">
-        <v>14</v>
-      </c>
-      <c r="I14" s="101">
-        <v>0</v>
-      </c>
-      <c r="J14" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="101">
-        <v>0</v>
-      </c>
-      <c r="D15" s="101">
-        <v>0</v>
-      </c>
-      <c r="E15" s="101">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F15" s="101">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G15" s="101">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H15" s="101">
-        <v>6</v>
-      </c>
-      <c r="I15" s="101">
-        <v>0</v>
-      </c>
-      <c r="J15" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="101">
-        <v>0</v>
-      </c>
-      <c r="D16" s="101">
-        <v>0</v>
-      </c>
-      <c r="E16" s="101">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F16" s="101">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G16" s="101">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="H16" s="101">
-        <v>59</v>
-      </c>
-      <c r="I16" s="101">
-        <v>0</v>
-      </c>
-      <c r="J16" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="101">
-        <v>0</v>
-      </c>
-      <c r="D17" s="101">
-        <v>0</v>
-      </c>
-      <c r="E17" s="101">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F17" s="101">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G17" s="101">
-        <v>0.36</v>
-      </c>
-      <c r="H17" s="101">
-        <v>24</v>
-      </c>
-      <c r="I17" s="101">
-        <v>0</v>
-      </c>
-      <c r="J17" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="101">
-        <v>0</v>
-      </c>
-      <c r="D18" s="101">
-        <v>0</v>
-      </c>
-      <c r="E18" s="101">
-        <v>0.33</v>
-      </c>
-      <c r="F18" s="101">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G18" s="101">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H18" s="101">
-        <v>32</v>
-      </c>
-      <c r="I18" s="101">
-        <v>0</v>
-      </c>
-      <c r="J18" s="101">
+      <c r="I18" s="98">
+        <v>0</v>
+      </c>
+      <c r="J18" s="98">
         <v>0</v>
       </c>
       <c r="N18" s="91"/>
@@ -5527,34 +5556,34 @@
       <c r="V18" s="91"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="101">
-        <v>0</v>
-      </c>
-      <c r="D19" s="101">
-        <v>0</v>
-      </c>
-      <c r="E19" s="101">
+      <c r="A19" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="98">
+        <v>0</v>
+      </c>
+      <c r="D19" s="98">
+        <v>0</v>
+      </c>
+      <c r="E19" s="98">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="98">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G19" s="101">
+      <c r="G19" s="98">
         <v>0.53200000000000003</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="98">
         <v>34</v>
       </c>
-      <c r="I19" s="101">
-        <v>0</v>
-      </c>
-      <c r="J19" s="101">
+      <c r="I19" s="98">
+        <v>0</v>
+      </c>
+      <c r="J19" s="98">
         <v>0</v>
       </c>
       <c r="N19" s="91"/>
@@ -5837,13 +5866,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5996,13 +6025,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6162,13 +6191,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
